--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03710967862312575</v>
+        <v>0.03710967862291303</v>
       </c>
       <c r="D2">
-        <v>0.1432830307650903</v>
+        <v>0.1432830307652893</v>
       </c>
       <c r="E2">
-        <v>1.905022750776027</v>
+        <v>1.905022750776041</v>
       </c>
       <c r="F2">
         <v>3.774693156924002</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.928481708201573</v>
+        <v>2.92848170820163</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>24.4208850424198</v>
+        <v>24.42088504241974</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02351675267404252</v>
+        <v>0.02351675267403941</v>
       </c>
       <c r="D3">
-        <v>0.09439550465749136</v>
+        <v>0.09439550465758373</v>
       </c>
       <c r="E3">
         <v>1.545553041096454</v>
       </c>
       <c r="F3">
-        <v>2.889761777249589</v>
+        <v>2.889761777249561</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.235048604500463</v>
+        <v>2.235048604500435</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.59642700464036</v>
+        <v>20.5964270046403</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01721069917534801</v>
+        <v>0.01721069917535067</v>
       </c>
       <c r="D4">
-        <v>0.07136027199984696</v>
+        <v>0.07136027199995709</v>
       </c>
       <c r="E4">
-        <v>1.350518234444493</v>
+        <v>1.350518234444507</v>
       </c>
       <c r="F4">
-        <v>2.438230444699187</v>
+        <v>2.438230444699229</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.882028552200069</v>
+        <v>1.882028552200097</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.39645847641765</v>
+        <v>18.39645847641771</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0150044728127281</v>
+        <v>0.01500447281292749</v>
       </c>
       <c r="D5">
-        <v>0.06322305330948907</v>
+        <v>0.06322305330957434</v>
       </c>
       <c r="E5">
-        <v>1.275565635758667</v>
+        <v>1.275565635758682</v>
       </c>
       <c r="F5">
-        <v>2.270905884546423</v>
+        <v>2.27090588454648</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.751376515766069</v>
+        <v>1.751376515766097</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01465682219902353</v>
+        <v>0.01465682219901066</v>
       </c>
       <c r="D6">
-        <v>0.0619362860989483</v>
+        <v>0.06193628609883817</v>
       </c>
       <c r="E6">
-        <v>1.263351069029312</v>
+        <v>1.263351069029326</v>
       </c>
       <c r="F6">
-        <v>2.243987314538373</v>
+        <v>2.24398731453843</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.730367029845084</v>
+        <v>1.730367029845112</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.3835669775853</v>
+        <v>17.38356697758536</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01717962693143105</v>
+        <v>0.01717962693172082</v>
       </c>
       <c r="D7">
-        <v>0.07124599112410479</v>
+        <v>0.07124599112398755</v>
       </c>
       <c r="E7">
-        <v>1.349491054197657</v>
+        <v>1.349491054197628</v>
       </c>
       <c r="F7">
-        <v>2.435912978477219</v>
+        <v>2.435912978477191</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.38463085261083</v>
+        <v>18.38463085261088</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03188581639602761</v>
+        <v>0.03188581639601873</v>
       </c>
       <c r="D8">
-        <v>0.1245935239575786</v>
+        <v>0.1245935239575715</v>
       </c>
       <c r="E8">
-        <v>1.77427435257863</v>
+        <v>1.774274352578644</v>
       </c>
       <c r="F8">
-        <v>3.445679286449973</v>
+        <v>3.44567928645003</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.670450800033393</v>
+        <v>2.670450800033422</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23.06355798627811</v>
+        <v>23.06355798627806</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D9">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E9">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F9">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D10">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E10">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F10">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D11">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E11">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F11">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D12">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E12">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F12">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D13">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E13">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F13">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D14">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E14">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F14">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D15">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E15">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F15">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D16">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E16">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F16">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D17">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E17">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F17">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D18">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E18">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F18">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D19">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E19">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F19">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D20">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E20">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F20">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D21">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E21">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F21">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D22">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E22">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F22">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D23">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E23">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F23">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D24">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E24">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F24">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09128889036175103</v>
+        <v>0.09128889036155385</v>
       </c>
       <c r="D25">
-        <v>0.333044433658273</v>
+        <v>0.3330444336582872</v>
       </c>
       <c r="E25">
-        <v>3.000159676089012</v>
+        <v>3.00015967608897</v>
       </c>
       <c r="F25">
-        <v>6.753713109662868</v>
+        <v>6.753713109662925</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5.273421890878438</v>
+        <v>5.273421890878495</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>34.35816645008504</v>
+        <v>34.35816645008509</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03710967862291303</v>
+        <v>0.03710967862312575</v>
       </c>
       <c r="D2">
-        <v>0.1432830307652893</v>
+        <v>0.1432830307650903</v>
       </c>
       <c r="E2">
-        <v>1.905022750776041</v>
+        <v>1.905022750776027</v>
       </c>
       <c r="F2">
         <v>3.774693156924002</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.92848170820163</v>
+        <v>2.928481708201573</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>24.42088504241974</v>
+        <v>24.4208850424198</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02351675267403941</v>
+        <v>0.02351675267404252</v>
       </c>
       <c r="D3">
-        <v>0.09439550465758373</v>
+        <v>0.09439550465749136</v>
       </c>
       <c r="E3">
         <v>1.545553041096454</v>
       </c>
       <c r="F3">
-        <v>2.889761777249561</v>
+        <v>2.889761777249589</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.235048604500435</v>
+        <v>2.235048604500463</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.5964270046403</v>
+        <v>20.59642700464036</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01721069917535067</v>
+        <v>0.01721069917534801</v>
       </c>
       <c r="D4">
-        <v>0.07136027199995709</v>
+        <v>0.07136027199984696</v>
       </c>
       <c r="E4">
-        <v>1.350518234444507</v>
+        <v>1.350518234444493</v>
       </c>
       <c r="F4">
-        <v>2.438230444699229</v>
+        <v>2.438230444699187</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.882028552200097</v>
+        <v>1.882028552200069</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.39645847641771</v>
+        <v>18.39645847641765</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01500447281292749</v>
+        <v>0.0150044728127281</v>
       </c>
       <c r="D5">
-        <v>0.06322305330957434</v>
+        <v>0.06322305330948907</v>
       </c>
       <c r="E5">
-        <v>1.275565635758682</v>
+        <v>1.275565635758667</v>
       </c>
       <c r="F5">
-        <v>2.27090588454648</v>
+        <v>2.270905884546423</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.751376515766097</v>
+        <v>1.751376515766069</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01465682219901066</v>
+        <v>0.01465682219902353</v>
       </c>
       <c r="D6">
-        <v>0.06193628609883817</v>
+        <v>0.0619362860989483</v>
       </c>
       <c r="E6">
-        <v>1.263351069029326</v>
+        <v>1.263351069029312</v>
       </c>
       <c r="F6">
-        <v>2.24398731453843</v>
+        <v>2.243987314538373</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.730367029845112</v>
+        <v>1.730367029845084</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.38356697758536</v>
+        <v>17.3835669775853</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01717962693172082</v>
+        <v>0.01717962693143105</v>
       </c>
       <c r="D7">
-        <v>0.07124599112398755</v>
+        <v>0.07124599112410479</v>
       </c>
       <c r="E7">
-        <v>1.349491054197628</v>
+        <v>1.349491054197657</v>
       </c>
       <c r="F7">
-        <v>2.435912978477191</v>
+        <v>2.435912978477219</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.38463085261088</v>
+        <v>18.38463085261083</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03188581639601873</v>
+        <v>0.03188581639602761</v>
       </c>
       <c r="D8">
-        <v>0.1245935239575715</v>
+        <v>0.1245935239575786</v>
       </c>
       <c r="E8">
-        <v>1.774274352578644</v>
+        <v>1.77427435257863</v>
       </c>
       <c r="F8">
-        <v>3.44567928645003</v>
+        <v>3.445679286449973</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.670450800033422</v>
+        <v>2.670450800033393</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23.06355798627806</v>
+        <v>23.06355798627811</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D9">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E9">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F9">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D10">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E10">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F10">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D11">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E11">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F11">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D12">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E12">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F12">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D13">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E13">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F13">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D14">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E14">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F14">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D15">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E15">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F15">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D16">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E16">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F16">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D17">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E17">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F17">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D18">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E18">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F18">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D19">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E19">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F19">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D20">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E20">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F20">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D21">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E21">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F21">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D22">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E22">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F22">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D23">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E23">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F23">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D24">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E24">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F24">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09128889036155385</v>
+        <v>0.09128889036175103</v>
       </c>
       <c r="D25">
-        <v>0.3330444336582872</v>
+        <v>0.333044433658273</v>
       </c>
       <c r="E25">
-        <v>3.00015967608897</v>
+        <v>3.000159676089012</v>
       </c>
       <c r="F25">
-        <v>6.753713109662925</v>
+        <v>6.753713109662868</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5.273421890878495</v>
+        <v>5.273421890878438</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>34.35816645008509</v>
+        <v>34.35816645008504</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03710967862312575</v>
+        <v>0.03348342576200247</v>
       </c>
       <c r="D2">
-        <v>0.1432830307650903</v>
+        <v>0.1327515102242742</v>
       </c>
       <c r="E2">
-        <v>1.905022750776027</v>
+        <v>1.885039337778466</v>
       </c>
       <c r="F2">
-        <v>3.774693156924002</v>
+        <v>3.675513556533588</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006141943064467967</v>
       </c>
       <c r="H2">
-        <v>2.928481708201573</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.849101593465122</v>
       </c>
       <c r="J2">
-        <v>24.4208850424198</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.26254392348466</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02351675267404252</v>
+        <v>0.02073255099466165</v>
       </c>
       <c r="D3">
-        <v>0.09439550465749136</v>
+        <v>0.08643921272264166</v>
       </c>
       <c r="E3">
-        <v>1.545553041096454</v>
+        <v>1.530928127843467</v>
       </c>
       <c r="F3">
-        <v>2.889761777249589</v>
+        <v>2.818246858036531</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006445458348185849</v>
       </c>
       <c r="H3">
-        <v>2.235048604500463</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.177707889862646</v>
       </c>
       <c r="J3">
-        <v>20.59642700464036</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.47280536405447</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01721069917534801</v>
+        <v>0.01487262048551763</v>
       </c>
       <c r="D4">
-        <v>0.07136027199984696</v>
+        <v>0.06475178832094386</v>
       </c>
       <c r="E4">
-        <v>1.350518234444493</v>
+        <v>1.338390658641345</v>
       </c>
       <c r="F4">
-        <v>2.438230444699187</v>
+        <v>2.380978201834921</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006622690348323523</v>
       </c>
       <c r="H4">
-        <v>1.882028552200069</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.836052078898248</v>
       </c>
       <c r="J4">
-        <v>18.39645847641765</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.29037658682637</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0150044728127281</v>
+        <v>0.01283721426038609</v>
       </c>
       <c r="D5">
-        <v>0.06322305330948907</v>
+        <v>0.05712761001390732</v>
       </c>
       <c r="E5">
-        <v>1.275565635758667</v>
+        <v>1.264332845627578</v>
       </c>
       <c r="F5">
-        <v>2.270905884546423</v>
+        <v>2.219040401571618</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006693507824084198</v>
       </c>
       <c r="H5">
-        <v>1.751376515766069</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.70969251186385</v>
       </c>
       <c r="J5">
-        <v>17.52662938382878</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.42709346805077</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01465682219902353</v>
+        <v>0.01251740211760199</v>
       </c>
       <c r="D6">
-        <v>0.0619362860989483</v>
+        <v>0.05592429515889918</v>
       </c>
       <c r="E6">
-        <v>1.263351069029312</v>
+        <v>1.252260915675009</v>
       </c>
       <c r="F6">
-        <v>2.243987314538373</v>
+        <v>2.192995785544454</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006705201965793922</v>
       </c>
       <c r="H6">
-        <v>1.730367029845084</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.689379463904231</v>
       </c>
       <c r="J6">
-        <v>17.3835669775853</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.28508863123392</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01717962693143105</v>
+        <v>0.01484388991666541</v>
       </c>
       <c r="D7">
-        <v>0.07124599112410479</v>
+        <v>0.06464455170930705</v>
       </c>
       <c r="E7">
-        <v>1.349491054197657</v>
+        <v>1.337375972655195</v>
       </c>
       <c r="F7">
-        <v>2.435912978477219</v>
+        <v>2.378734859309873</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006623650178045721</v>
       </c>
       <c r="H7">
-        <v>1.880218343929656</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.834300934910573</v>
       </c>
       <c r="J7">
-        <v>18.38463085261083</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.27863934942098</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03188581639602761</v>
+        <v>0.02857018137185063</v>
       </c>
       <c r="D8">
-        <v>0.1245935239575786</v>
+        <v>0.1150166671993631</v>
       </c>
       <c r="E8">
-        <v>1.77427435257863</v>
+        <v>1.756366553457838</v>
       </c>
       <c r="F8">
-        <v>3.445679286449973</v>
+        <v>3.356814728061266</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006249154602169127</v>
       </c>
       <c r="H8">
-        <v>2.670450800033393</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.599287872598083</v>
       </c>
       <c r="J8">
-        <v>23.06355798627811</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.91825567622817</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D9">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E9">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F9">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H9">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J9">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D10">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E10">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F10">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H10">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J10">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D11">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E11">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F11">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H11">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J11">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D12">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E12">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F12">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H12">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J12">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D13">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E13">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F13">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H13">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J13">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D14">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E14">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F14">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H14">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J14">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D15">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E15">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F15">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H15">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J15">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D16">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E16">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F16">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H16">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J16">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D17">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E17">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F17">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H17">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J17">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D18">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E18">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F18">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H18">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J18">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D19">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E19">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F19">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H19">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J19">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D20">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E20">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F20">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H20">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J20">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D21">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E21">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F21">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H21">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J21">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D22">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E22">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F22">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H22">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J22">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D23">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E23">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F23">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H23">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J23">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D24">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E24">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F24">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H24">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J24">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09128889036175103</v>
+        <v>0.08460472547032971</v>
       </c>
       <c r="D25">
-        <v>0.333044433658273</v>
+        <v>0.312866401699047</v>
       </c>
       <c r="E25">
-        <v>3.000159676089012</v>
+        <v>2.953842995504175</v>
       </c>
       <c r="F25">
-        <v>6.753713109662868</v>
+        <v>6.547484018970863</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005361708894395062</v>
       </c>
       <c r="H25">
-        <v>5.273421890878438</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.108774335903732</v>
       </c>
       <c r="J25">
-        <v>34.35816645008504</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>34.06068655989219</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03348342576200247</v>
+        <v>0.1791698459921207</v>
       </c>
       <c r="D2">
-        <v>0.1327515102242742</v>
+        <v>0.4010065057350971</v>
       </c>
       <c r="E2">
-        <v>1.885039337778466</v>
+        <v>0.1447392553060354</v>
       </c>
       <c r="F2">
-        <v>3.675513556533588</v>
+        <v>7.996441836543966</v>
       </c>
       <c r="G2">
-        <v>0.0006141943064467967</v>
+        <v>0.0006405335993302031</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.849101593465122</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.26254392348466</v>
+        <v>9.559784552795691</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.144584253752825</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02073255099466165</v>
+        <v>0.1483488576654111</v>
       </c>
       <c r="D3">
-        <v>0.08643921272264166</v>
+        <v>0.3215901473602685</v>
       </c>
       <c r="E3">
-        <v>1.530928127843467</v>
+        <v>0.1248596226867029</v>
       </c>
       <c r="F3">
-        <v>2.818246858036531</v>
+        <v>6.548539928667623</v>
       </c>
       <c r="G3">
-        <v>0.0006445458348185849</v>
+        <v>0.0006708444880267894</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.177707889862646</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.47280536405447</v>
+        <v>8.025812162348217</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.30990394307527</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01487262048551763</v>
+        <v>0.1310101265483752</v>
       </c>
       <c r="D4">
-        <v>0.06475178832094386</v>
+        <v>0.2797962065527742</v>
       </c>
       <c r="E4">
-        <v>1.338390658641345</v>
+        <v>0.1131355513222374</v>
       </c>
       <c r="F4">
-        <v>2.380978201834921</v>
+        <v>5.761307103800306</v>
       </c>
       <c r="G4">
-        <v>0.0006622690348323523</v>
+        <v>0.0006888402545786235</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.836052078898248</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.29037658682637</v>
+        <v>7.145842730205459</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.832858709679854</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01283721426038609</v>
+        <v>0.1242402801783413</v>
       </c>
       <c r="D5">
-        <v>0.05712761001390732</v>
+        <v>0.2640749103925231</v>
       </c>
       <c r="E5">
-        <v>1.264332845627578</v>
+        <v>0.1084417941017861</v>
       </c>
       <c r="F5">
-        <v>2.219040401571618</v>
+        <v>5.459696797079374</v>
       </c>
       <c r="G5">
-        <v>0.0006693507824084198</v>
+        <v>0.0006960856570260082</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.70969251186385</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.42709346805077</v>
+        <v>6.798753077301001</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.645077751262008</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01251740211760199</v>
+        <v>0.1231316359514238</v>
       </c>
       <c r="D6">
-        <v>0.05592429515889918</v>
+        <v>0.2615333528317905</v>
       </c>
       <c r="E6">
-        <v>1.252260915675009</v>
+        <v>0.107666623249461</v>
       </c>
       <c r="F6">
-        <v>2.192995785544454</v>
+        <v>5.410625858020097</v>
       </c>
       <c r="G6">
-        <v>0.0006705201965793922</v>
+        <v>0.0006972849808348171</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.689379463904231</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.28508863123392</v>
+        <v>6.741719646628923</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.614243194231761</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01484388991666541</v>
+        <v>0.1309177395807666</v>
       </c>
       <c r="D7">
-        <v>0.06464455170930705</v>
+        <v>0.279579354874997</v>
       </c>
       <c r="E7">
-        <v>1.337375972655195</v>
+        <v>0.11307194950286</v>
       </c>
       <c r="F7">
-        <v>2.378734859309873</v>
+        <v>5.757168683928995</v>
       </c>
       <c r="G7">
-        <v>0.0006623650178045721</v>
+        <v>0.000688938252876132</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.834300934910573</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.27863934942098</v>
+        <v>7.141119579126126</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.8303019250651</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02857018137185063</v>
+        <v>0.1681390284642532</v>
       </c>
       <c r="D8">
-        <v>0.1150166671993631</v>
+        <v>0.371854884279287</v>
       </c>
       <c r="E8">
-        <v>1.756366553457838</v>
+        <v>0.1377570736237708</v>
       </c>
       <c r="F8">
-        <v>3.356814728061266</v>
+        <v>7.471424607319534</v>
       </c>
       <c r="G8">
-        <v>0.0006249154602169127</v>
+        <v>0.0006511608850035989</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.599287872598083</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.91825567622817</v>
+        <v>9.015083616947493</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.847767079562033</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08460472547032971</v>
+        <v>0.2618714752622822</v>
       </c>
       <c r="D9">
-        <v>0.312866401699047</v>
+        <v>0.6437766977113881</v>
       </c>
       <c r="E9">
-        <v>2.953842995504175</v>
+        <v>0.1931481591998825</v>
       </c>
       <c r="F9">
-        <v>6.547484018970863</v>
+        <v>12.1515019643266</v>
       </c>
       <c r="G9">
-        <v>0.0005361708894395062</v>
+        <v>0.0005669095521899437</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.06068655989219</v>
+        <v>13.50088847395978</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7.304506581262729</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D10">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E10">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F10">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G10">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D11">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E11">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F11">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G11">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D12">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E12">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F12">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G12">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D13">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E13">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F13">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G13">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D14">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E14">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F14">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G14">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08460472547032971</v>
+        <v>0.3757520065390025</v>
       </c>
       <c r="D15">
-        <v>0.312866401699047</v>
+        <v>1.044551367205969</v>
       </c>
       <c r="E15">
-        <v>2.953842995504175</v>
+        <v>0.2522168970577034</v>
       </c>
       <c r="F15">
-        <v>6.547484018970863</v>
+        <v>18.43925931244706</v>
       </c>
       <c r="G15">
-        <v>0.0005361708894395062</v>
+        <v>0.0004778087397966286</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>34.06068655989219</v>
+        <v>18.54571717872545</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10.09216769254058</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08460472547032971</v>
+        <v>0.6542210736066778</v>
       </c>
       <c r="D16">
-        <v>0.312866401699047</v>
+        <v>2.393505920772782</v>
       </c>
       <c r="E16">
-        <v>2.953842995504175</v>
+        <v>0.4372203109344568</v>
       </c>
       <c r="F16">
-        <v>6.547484018970863</v>
+        <v>36.49859124887183</v>
       </c>
       <c r="G16">
-        <v>0.0005361708894395062</v>
+        <v>0.0002945608893597781</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>34.06068655989219</v>
+        <v>29.18217376051152</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.84036186472773</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08460472547032971</v>
+        <v>0.6934717287719394</v>
       </c>
       <c r="D17">
-        <v>0.312866401699047</v>
+        <v>2.646851037158712</v>
       </c>
       <c r="E17">
-        <v>2.953842995504175</v>
+        <v>0.4903741089264102</v>
       </c>
       <c r="F17">
-        <v>6.547484018970863</v>
+        <v>39.43965917378955</v>
       </c>
       <c r="G17">
-        <v>0.0005361708894395062</v>
+        <v>0.0002708319564501573</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>34.06068655989219</v>
+        <v>30.52229358935477</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.48537280269267</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08460472547032971</v>
+        <v>0.7122155897310023</v>
       </c>
       <c r="D18">
-        <v>0.312866401699047</v>
+        <v>2.778124066145551</v>
       </c>
       <c r="E18">
-        <v>2.953842995504175</v>
+        <v>0.5226829414734198</v>
       </c>
       <c r="F18">
-        <v>6.547484018970863</v>
+        <v>40.90442173892632</v>
       </c>
       <c r="G18">
-        <v>0.0005361708894395062</v>
+        <v>0.0002594429203095439</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>34.06068655989219</v>
+        <v>31.15734611873393</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.77246929482035</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08460472547032971</v>
+        <v>0.7180864524491426</v>
       </c>
       <c r="D19">
-        <v>0.312866401699047</v>
+        <v>2.820966834981562</v>
       </c>
       <c r="E19">
-        <v>2.953842995504175</v>
+        <v>0.5340421270744748</v>
       </c>
       <c r="F19">
-        <v>6.547484018970863</v>
+        <v>41.37332796819101</v>
       </c>
       <c r="G19">
-        <v>0.0005361708894395062</v>
+        <v>0.0002558514062386258</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>34.06068655989219</v>
+        <v>31.35632219164307</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.85925690377303</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D20">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E20">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F20">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G20">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D21">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E21">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F21">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G21">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D22">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E22">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F22">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G22">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D23">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E23">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F23">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G23">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D24">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E24">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F24">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G24">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08460472547032971</v>
+        <v>0.6897436104572847</v>
       </c>
       <c r="D25">
-        <v>0.312866401699047</v>
+        <v>2.621632450642579</v>
       </c>
       <c r="E25">
-        <v>2.953842995504175</v>
+        <v>0.4845703195791238</v>
       </c>
       <c r="F25">
-        <v>6.547484018970863</v>
+        <v>39.15353859303269</v>
       </c>
       <c r="G25">
-        <v>0.0005361708894395062</v>
+        <v>0.00027308820779521</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.108774335903732</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.06068655989219</v>
+        <v>30.39580073989268</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>16.42655497608976</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1791698459921207</v>
+        <v>0.1469090596017821</v>
       </c>
       <c r="D2">
-        <v>0.4010065057350971</v>
+        <v>0.03960884664743958</v>
       </c>
       <c r="E2">
-        <v>0.1447392553060354</v>
+        <v>1.433385219777406</v>
       </c>
       <c r="F2">
-        <v>7.996441836543966</v>
+        <v>0.4719892049247605</v>
       </c>
       <c r="G2">
-        <v>0.0006405335993302031</v>
+        <v>0.0007726113699747546</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.559784552795691</v>
+        <v>5.450883112989288</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.144584253752825</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.256433885499547</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1483488576654111</v>
+        <v>0.1268712400740668</v>
       </c>
       <c r="D3">
-        <v>0.3215901473602685</v>
+        <v>0.03554373621008722</v>
       </c>
       <c r="E3">
-        <v>0.1248596226867029</v>
+        <v>1.227978235719291</v>
       </c>
       <c r="F3">
-        <v>6.548539928667623</v>
+        <v>0.4283790340121669</v>
       </c>
       <c r="G3">
-        <v>0.0006708444880267894</v>
+        <v>0.0007783764371227953</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.025812162348217</v>
+        <v>4.740418647498302</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.30990394307527</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.163442106013349</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1310101265483752</v>
+        <v>0.1147153624522588</v>
       </c>
       <c r="D4">
-        <v>0.2797962065527742</v>
+        <v>0.03306556024776341</v>
       </c>
       <c r="E4">
-        <v>0.1131355513222374</v>
+        <v>1.104630259256709</v>
       </c>
       <c r="F4">
-        <v>5.761307103800306</v>
+        <v>0.4037071100825216</v>
       </c>
       <c r="G4">
-        <v>0.0006888402545786235</v>
+        <v>0.0007820049856542918</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.145842730205459</v>
+        <v>4.305678479666597</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.832858709679854</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.113537988729661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1242402801783413</v>
+        <v>0.1097935229397393</v>
       </c>
       <c r="D5">
-        <v>0.2640749103925231</v>
+        <v>0.03205933655004145</v>
       </c>
       <c r="E5">
-        <v>0.1084417941017861</v>
+        <v>1.05495325307561</v>
       </c>
       <c r="F5">
-        <v>5.459696797079374</v>
+        <v>0.3941364081770686</v>
       </c>
       <c r="G5">
-        <v>0.0006960856570260082</v>
+        <v>0.0007835070095249805</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.798753077301001</v>
+        <v>4.128786303086656</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.645077751262008</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.094857186827767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1231316359514238</v>
+        <v>0.1089780271238396</v>
       </c>
       <c r="D6">
-        <v>0.2615333528317905</v>
+        <v>0.03189245209453162</v>
       </c>
       <c r="E6">
-        <v>0.107666623249461</v>
+        <v>1.046736967565451</v>
       </c>
       <c r="F6">
-        <v>5.410625858020097</v>
+        <v>0.3925751109843105</v>
       </c>
       <c r="G6">
-        <v>0.0006972849808348171</v>
+        <v>0.0007837578592890774</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.741719646628923</v>
+        <v>4.099426747208838</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.614243194231761</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.091850981832437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1309177395807666</v>
+        <v>0.1146488628483269</v>
       </c>
       <c r="D7">
-        <v>0.279579354874997</v>
+        <v>0.03305197619737754</v>
       </c>
       <c r="E7">
-        <v>0.11307194950286</v>
+        <v>1.103958052204007</v>
       </c>
       <c r="F7">
-        <v>5.757168683928995</v>
+        <v>0.4035761376503615</v>
       </c>
       <c r="G7">
-        <v>0.000688938252876132</v>
+        <v>0.0007820251465567211</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.141119579126126</v>
+        <v>4.303291898585769</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.8303019250651</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.113279543844584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1681390284642532</v>
+        <v>0.1399661093025628</v>
       </c>
       <c r="D8">
-        <v>0.371854884279287</v>
+        <v>0.03820296906450693</v>
       </c>
       <c r="E8">
-        <v>0.1377570736237708</v>
+        <v>1.361916398330905</v>
       </c>
       <c r="F8">
-        <v>7.471424607319534</v>
+        <v>0.4564867569235531</v>
       </c>
       <c r="G8">
-        <v>0.0006511608850035989</v>
+        <v>0.0007745813910515823</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.015083616947493</v>
+        <v>5.205539118717411</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.847767079562033</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.222781363338839</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2618714752622822</v>
+        <v>0.1910449301351065</v>
       </c>
       <c r="D9">
-        <v>0.6437766977113881</v>
+        <v>0.04848864109045792</v>
       </c>
       <c r="E9">
-        <v>0.1931481591998825</v>
+        <v>1.895324685178267</v>
       </c>
       <c r="F9">
-        <v>12.1515019643266</v>
+        <v>0.5792184374765696</v>
       </c>
       <c r="G9">
-        <v>0.0005669095521899437</v>
+        <v>0.0007606369376032641</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.50088847395978</v>
+        <v>6.99203309497193</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.304506581262729</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.502171820857825</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3757520065390025</v>
+        <v>0.2298494764039702</v>
       </c>
       <c r="D10">
-        <v>1.044551367205969</v>
+        <v>0.0562283618059638</v>
       </c>
       <c r="E10">
-        <v>0.2522168970577034</v>
+        <v>2.31290941734369</v>
       </c>
       <c r="F10">
-        <v>18.43925931244706</v>
+        <v>0.6844671290850499</v>
       </c>
       <c r="G10">
-        <v>0.0004778087397966286</v>
+        <v>0.0007507095544794311</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.54571717872545</v>
+        <v>8.323538265840682</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.758589744161867</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3757520065390025</v>
+        <v>0.2478816764496798</v>
       </c>
       <c r="D11">
-        <v>1.044551367205969</v>
+        <v>0.05980790456199259</v>
       </c>
       <c r="E11">
-        <v>0.2522168970577034</v>
+        <v>2.510833295130027</v>
       </c>
       <c r="F11">
-        <v>18.43925931244706</v>
+        <v>0.7365156557189181</v>
       </c>
       <c r="G11">
-        <v>0.0004778087397966286</v>
+        <v>0.00074624177279469</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.54571717872545</v>
+        <v>8.935571586836147</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.889345920049692</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3757520065390025</v>
+        <v>0.2547741677320801</v>
       </c>
       <c r="D12">
-        <v>1.044551367205969</v>
+        <v>0.06117368005044455</v>
       </c>
       <c r="E12">
-        <v>0.2522168970577034</v>
+        <v>2.587163363783134</v>
       </c>
       <c r="F12">
-        <v>18.43925931244706</v>
+        <v>0.7569103023138837</v>
       </c>
       <c r="G12">
-        <v>0.0004778087397966286</v>
+        <v>0.0007445549188140519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.54571717872545</v>
+        <v>9.168448206801258</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.941176815429287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3757520065390025</v>
+        <v>0.2532867333749493</v>
       </c>
       <c r="D13">
-        <v>1.044551367205969</v>
+        <v>0.06087904629517027</v>
       </c>
       <c r="E13">
-        <v>0.2522168970577034</v>
+        <v>2.570658751476998</v>
       </c>
       <c r="F13">
-        <v>18.43925931244706</v>
+        <v>0.7524860099912729</v>
       </c>
       <c r="G13">
-        <v>0.0004778087397966286</v>
+        <v>0.0007449180243621238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.54571717872545</v>
+        <v>9.118241046714729</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.929906109094361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3757520065390025</v>
+        <v>0.248447383242052</v>
       </c>
       <c r="D14">
-        <v>1.044551367205969</v>
+        <v>0.05992005015215085</v>
       </c>
       <c r="E14">
-        <v>0.2522168970577034</v>
+        <v>2.517083860739575</v>
       </c>
       <c r="F14">
-        <v>18.43925931244706</v>
+        <v>0.7381792799828162</v>
       </c>
       <c r="G14">
-        <v>0.0004778087397966286</v>
+        <v>0.0007461029061680136</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.54571717872545</v>
+        <v>8.954706925273229</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.893561877475975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3757520065390025</v>
+        <v>0.2454917875951708</v>
       </c>
       <c r="D15">
-        <v>1.044551367205969</v>
+        <v>0.05933403553209615</v>
       </c>
       <c r="E15">
-        <v>0.2522168970577034</v>
+        <v>2.484455127832049</v>
       </c>
       <c r="F15">
-        <v>18.43925931244706</v>
+        <v>0.7295079171321248</v>
       </c>
       <c r="G15">
-        <v>0.0004778087397966286</v>
+        <v>0.0007468292695689971</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.54571717872545</v>
+        <v>8.854688960538567</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>10.09216769254058</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.871610802677566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6542210736066778</v>
+        <v>0.228679457786555</v>
       </c>
       <c r="D16">
-        <v>2.393505920772782</v>
+        <v>0.05599576243620419</v>
       </c>
       <c r="E16">
-        <v>0.4372203109344568</v>
+        <v>2.300154150069773</v>
       </c>
       <c r="F16">
-        <v>36.49859124887183</v>
+        <v>0.6811566070325057</v>
       </c>
       <c r="G16">
-        <v>0.0002945608893597781</v>
+        <v>0.0007510023450766234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>29.18217376051152</v>
+        <v>8.28368453219116</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.84036186472773</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.750352197863435</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6934717287719394</v>
+        <v>0.2184693242036531</v>
       </c>
       <c r="D17">
-        <v>2.646851037158712</v>
+        <v>0.05396409840765415</v>
       </c>
       <c r="E17">
-        <v>0.4903741089264102</v>
+        <v>2.189287086475133</v>
       </c>
       <c r="F17">
-        <v>39.43965917378955</v>
+        <v>0.6526202224244315</v>
       </c>
       <c r="G17">
-        <v>0.0002708319564501573</v>
+        <v>0.000753573443293826</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.52229358935477</v>
+        <v>7.93514864878864</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.48537280269267</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.679771261949298</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7122155897310023</v>
+        <v>0.2126318486960912</v>
       </c>
       <c r="D18">
-        <v>2.778124066145551</v>
+        <v>0.05280093921582107</v>
       </c>
       <c r="E18">
-        <v>0.5226829414734198</v>
+        <v>2.12625263953035</v>
       </c>
       <c r="F18">
-        <v>40.90442173892632</v>
+        <v>0.6365936962996557</v>
       </c>
       <c r="G18">
-        <v>0.0002594429203095439</v>
+        <v>0.0007550569406635422</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.15734611873393</v>
+        <v>7.73526177647318</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.77246929482035</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.640483920640463</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7180864524491426</v>
+        <v>0.210661140962273</v>
       </c>
       <c r="D19">
-        <v>2.820966834981562</v>
+        <v>0.05240798941833447</v>
       </c>
       <c r="E19">
-        <v>0.5340421270744748</v>
+        <v>2.105029627756707</v>
       </c>
       <c r="F19">
-        <v>41.37332796819101</v>
+        <v>0.6312314010289271</v>
       </c>
       <c r="G19">
-        <v>0.0002558514062386258</v>
+        <v>0.0007555600845065443</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31.35632219164307</v>
+        <v>7.667677642209753</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.85925690377303</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.627398539555486</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6897436104572847</v>
+        <v>0.2195525100430018</v>
       </c>
       <c r="D20">
-        <v>2.621632450642579</v>
+        <v>0.05417980117221077</v>
       </c>
       <c r="E20">
-        <v>0.4845703195791238</v>
+        <v>2.201011586338922</v>
       </c>
       <c r="F20">
-        <v>39.15353859303269</v>
+        <v>0.6556173475625968</v>
       </c>
       <c r="G20">
-        <v>0.00027308820779521</v>
+        <v>0.0007532992754257355</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.39580073989268</v>
+        <v>7.972189287036656</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.687147285659506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6897436104572847</v>
+        <v>0.2498669973724645</v>
       </c>
       <c r="D21">
-        <v>2.621632450642579</v>
+        <v>0.06020143548979462</v>
       </c>
       <c r="E21">
-        <v>0.4845703195791238</v>
+        <v>2.532780568034539</v>
       </c>
       <c r="F21">
-        <v>39.15353859303269</v>
+        <v>0.7423621890881691</v>
       </c>
       <c r="G21">
-        <v>0.00027308820779521</v>
+        <v>0.0007457547586941084</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.39580073989268</v>
+        <v>9.002708907745841</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.904171719405497</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6897436104572847</v>
+        <v>0.2700580466664917</v>
       </c>
       <c r="D22">
-        <v>2.621632450642579</v>
+        <v>0.06419791158671728</v>
       </c>
       <c r="E22">
-        <v>0.4845703195791238</v>
+        <v>2.757796384403065</v>
       </c>
       <c r="F22">
-        <v>39.15353859303269</v>
+        <v>0.8030953919023318</v>
       </c>
       <c r="G22">
-        <v>0.00027308820779521</v>
+        <v>0.000740852020948714</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>30.39580073989268</v>
+        <v>9.682813638523839</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.059672616577217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6897436104572847</v>
+        <v>0.2592436194490375</v>
       </c>
       <c r="D23">
-        <v>2.621632450642579</v>
+        <v>0.06205865208545447</v>
       </c>
       <c r="E23">
-        <v>0.4845703195791238</v>
+        <v>2.636863996246689</v>
       </c>
       <c r="F23">
-        <v>39.15353859303269</v>
+        <v>0.7702801382208548</v>
       </c>
       <c r="G23">
-        <v>0.00027308820779521</v>
+        <v>0.0007434668479657319</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.39580073989268</v>
+        <v>9.319150820716061</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.975323768832197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6897436104572847</v>
+        <v>0.2190627013012829</v>
       </c>
       <c r="D24">
-        <v>2.621632450642579</v>
+        <v>0.05408226691375972</v>
       </c>
       <c r="E24">
-        <v>0.4845703195791238</v>
+        <v>2.195708762853116</v>
       </c>
       <c r="F24">
-        <v>39.15353859303269</v>
+        <v>0.654261171783503</v>
       </c>
       <c r="G24">
-        <v>0.00027308820779521</v>
+        <v>0.0007534232099599941</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.39580073989268</v>
+        <v>7.95544170000619</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.6838085867156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6897436104572847</v>
+        <v>0.1770341478977002</v>
       </c>
       <c r="D25">
-        <v>2.621632450642579</v>
+        <v>0.04567966721916861</v>
       </c>
       <c r="E25">
-        <v>0.4845703195791238</v>
+        <v>1.747228478411699</v>
       </c>
       <c r="F25">
-        <v>39.15353859303269</v>
+        <v>0.5436449135915566</v>
       </c>
       <c r="G25">
-        <v>0.00027308820779521</v>
+        <v>0.000764347176314184</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.39580073989268</v>
+        <v>6.506078990238905</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.42655497608976</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.418532342401221</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1469090596017821</v>
+        <v>0.04959984119653882</v>
       </c>
       <c r="D2">
-        <v>0.03960884664743958</v>
+        <v>0.01856263679682968</v>
       </c>
       <c r="E2">
-        <v>1.433385219777406</v>
+        <v>0.4201700349834852</v>
       </c>
       <c r="F2">
-        <v>0.4719892049247605</v>
+        <v>0.5674485151329947</v>
       </c>
       <c r="G2">
-        <v>0.0007726113699747546</v>
+        <v>0.002398993797084834</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.450883112989288</v>
+        <v>1.796504050486988</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.256433885499547</v>
+        <v>1.868123972704467</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1268712400740668</v>
+        <v>0.04401957543043977</v>
       </c>
       <c r="D3">
-        <v>0.03554373621008722</v>
+        <v>0.01717486517247124</v>
       </c>
       <c r="E3">
-        <v>1.227978235719291</v>
+        <v>0.3664362559451746</v>
       </c>
       <c r="F3">
-        <v>0.4283790340121669</v>
+        <v>0.5670010986672978</v>
       </c>
       <c r="G3">
-        <v>0.0007783764371227953</v>
+        <v>0.002402536104889593</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.740418647498302</v>
+        <v>1.574046805419982</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.163442106013349</v>
+        <v>1.88301773521107</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1147153624522588</v>
+        <v>0.04060883875882837</v>
       </c>
       <c r="D4">
-        <v>0.03306556024776341</v>
+        <v>0.01632239955186066</v>
       </c>
       <c r="E4">
-        <v>1.104630259256709</v>
+        <v>0.3335482343720031</v>
       </c>
       <c r="F4">
-        <v>0.4037071100825216</v>
+        <v>0.5673971368650328</v>
       </c>
       <c r="G4">
-        <v>0.0007820049856542918</v>
+        <v>0.002404822130296762</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.305678479666597</v>
+        <v>1.437075300580659</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.113537988729661</v>
+        <v>1.894477981076221</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1097935229397393</v>
+        <v>0.03922279915526872</v>
       </c>
       <c r="D5">
-        <v>0.03205933655004145</v>
+        <v>0.01597494608599703</v>
       </c>
       <c r="E5">
-        <v>1.05495325307561</v>
+        <v>0.32017027547721</v>
       </c>
       <c r="F5">
-        <v>0.3941364081770686</v>
+        <v>0.5677261724378653</v>
       </c>
       <c r="G5">
-        <v>0.0007835070095249805</v>
+        <v>0.00240578171782295</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.128786303086656</v>
+        <v>1.381164622911058</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.094857186827767</v>
+        <v>1.899726731771807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1089780271238396</v>
+        <v>0.03899288017520064</v>
       </c>
       <c r="D6">
-        <v>0.03189245209453162</v>
+        <v>0.01591724844634257</v>
       </c>
       <c r="E6">
-        <v>1.046736967565451</v>
+        <v>0.3179502730716308</v>
       </c>
       <c r="F6">
-        <v>0.3925751109843105</v>
+        <v>0.5677909041748705</v>
       </c>
       <c r="G6">
-        <v>0.0007837578592890774</v>
+        <v>0.002405942751335337</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.099426747208838</v>
+        <v>1.37187510997353</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.091850981832437</v>
+        <v>1.900633123342885</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1146488628483269</v>
+        <v>0.04059013056925664</v>
       </c>
       <c r="D7">
-        <v>0.03305197619737754</v>
+        <v>0.01631771390892567</v>
       </c>
       <c r="E7">
-        <v>1.103958052204007</v>
+        <v>0.333367719471326</v>
       </c>
       <c r="F7">
-        <v>0.4035761376503615</v>
+        <v>0.5674008969144069</v>
       </c>
       <c r="G7">
-        <v>0.0007820251465567211</v>
+        <v>0.002404834958067012</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.303291898585769</v>
+        <v>1.436321645764053</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.113279543844584</v>
+        <v>1.894546429624484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1399661093025628</v>
+        <v>0.04767250121031452</v>
       </c>
       <c r="D8">
-        <v>0.03820296906450693</v>
+        <v>0.01808422428782563</v>
       </c>
       <c r="E8">
-        <v>1.361916398330905</v>
+        <v>0.4016195699964982</v>
       </c>
       <c r="F8">
-        <v>0.4564867569235531</v>
+        <v>0.5671544148570931</v>
       </c>
       <c r="G8">
-        <v>0.0007745813910515823</v>
+        <v>0.002400192196045559</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.205539118717411</v>
+        <v>1.719881366275331</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.222781363338839</v>
+        <v>1.872776593361664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1910449301351065</v>
+        <v>0.06168760645215343</v>
       </c>
       <c r="D9">
-        <v>0.04848864109045792</v>
+        <v>0.0215445124919782</v>
       </c>
       <c r="E9">
-        <v>1.895324685178267</v>
+        <v>0.5363962828930511</v>
       </c>
       <c r="F9">
-        <v>0.5792184374765696</v>
+        <v>0.5720402252350709</v>
       </c>
       <c r="G9">
-        <v>0.0007606369376032641</v>
+        <v>0.002391964479722057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.99203309497193</v>
+        <v>2.272838049309428</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.502171820857825</v>
+        <v>1.848622745051273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2298494764039702</v>
+        <v>0.07206698040123172</v>
       </c>
       <c r="D10">
-        <v>0.0562283618059638</v>
+        <v>0.02408355087572289</v>
       </c>
       <c r="E10">
-        <v>2.31290941734369</v>
+        <v>0.6361402998134338</v>
       </c>
       <c r="F10">
-        <v>0.6844671290850499</v>
+        <v>0.5789696249358656</v>
       </c>
       <c r="G10">
-        <v>0.0007507095544794311</v>
+        <v>0.002386448026048271</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.323538265840682</v>
+        <v>2.677149172869235</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.758589744161867</v>
+        <v>1.842408015226596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2478816764496798</v>
+        <v>0.07680794854199746</v>
       </c>
       <c r="D11">
-        <v>0.05980790456199259</v>
+        <v>0.02523777013326622</v>
       </c>
       <c r="E11">
-        <v>2.510833295130027</v>
+        <v>0.6817075835077162</v>
       </c>
       <c r="F11">
-        <v>0.7365156557189181</v>
+        <v>0.5828616686239911</v>
       </c>
       <c r="G11">
-        <v>0.00074624177279469</v>
+        <v>0.002384051906876516</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.935571586836147</v>
+        <v>2.860650449808645</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.889345920049692</v>
+        <v>1.842134623426688</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2547741677320801</v>
+        <v>0.07860608684218562</v>
       </c>
       <c r="D12">
-        <v>0.06117368005044455</v>
+        <v>0.02567471066079463</v>
       </c>
       <c r="E12">
-        <v>2.587163363783134</v>
+        <v>0.6989931265135425</v>
       </c>
       <c r="F12">
-        <v>0.7569103023138837</v>
+        <v>0.5844430223795314</v>
       </c>
       <c r="G12">
-        <v>0.0007445549188140519</v>
+        <v>0.002383160759576912</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.168448206801258</v>
+        <v>2.930075474821876</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.941176815429287</v>
+        <v>1.842402370780917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2532867333749493</v>
+        <v>0.07821869853549401</v>
       </c>
       <c r="D13">
-        <v>0.06087904629517027</v>
+        <v>0.02558061414193702</v>
       </c>
       <c r="E13">
-        <v>2.570658751476998</v>
+        <v>0.6952689935098277</v>
       </c>
       <c r="F13">
-        <v>0.7524860099912729</v>
+        <v>0.5840976493879424</v>
       </c>
       <c r="G13">
-        <v>0.0007449180243621238</v>
+        <v>0.002383351964363295</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.118241046714729</v>
+        <v>2.915126387394537</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.929906109094361</v>
+        <v>1.842328129308271</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.248447383242052</v>
+        <v>0.07695582529144929</v>
       </c>
       <c r="D14">
-        <v>0.05992005015215085</v>
+        <v>0.02527372036637132</v>
       </c>
       <c r="E14">
-        <v>2.517083860739575</v>
+        <v>0.68312905629125</v>
       </c>
       <c r="F14">
-        <v>0.7381792799828162</v>
+        <v>0.5829896061437125</v>
       </c>
       <c r="G14">
-        <v>0.0007461029061680136</v>
+        <v>0.002383978267247077</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.954706925273229</v>
+        <v>2.866363362223638</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.893561877475975</v>
+        <v>1.842149186982255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2454917875951708</v>
+        <v>0.07618265003435454</v>
       </c>
       <c r="D15">
-        <v>0.05933403553209615</v>
+        <v>0.02508572056132152</v>
       </c>
       <c r="E15">
-        <v>2.484455127832049</v>
+        <v>0.6756969996190776</v>
       </c>
       <c r="F15">
-        <v>0.7295079171321248</v>
+        <v>0.5823249338784819</v>
       </c>
       <c r="G15">
-        <v>0.0007468292695689971</v>
+        <v>0.002384364004230255</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.854688960538567</v>
+        <v>2.836486340613135</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.871610802677566</v>
+        <v>1.84208805118584</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.228679457786555</v>
+        <v>0.07175754087135999</v>
       </c>
       <c r="D16">
-        <v>0.05599576243620419</v>
+        <v>0.02400810189340064</v>
       </c>
       <c r="E16">
-        <v>2.300154150069773</v>
+        <v>0.633166464652362</v>
       </c>
       <c r="F16">
-        <v>0.6811566070325057</v>
+        <v>0.578730254849404</v>
       </c>
       <c r="G16">
-        <v>0.0007510023450766234</v>
+        <v>0.00238660689143322</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.28368453219116</v>
+        <v>2.66514824871615</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.750352197863435</v>
+        <v>1.842477615460353</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2184693242036531</v>
+        <v>0.06904787222562447</v>
       </c>
       <c r="D17">
-        <v>0.05396409840765415</v>
+        <v>0.02334679636419423</v>
       </c>
       <c r="E17">
-        <v>2.189287086475133</v>
+        <v>0.607126557921319</v>
       </c>
       <c r="F17">
-        <v>0.6526202224244315</v>
+        <v>0.5767153290488665</v>
       </c>
       <c r="G17">
-        <v>0.000753573443293826</v>
+        <v>0.002388011797364511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.93514864878864</v>
+        <v>2.559928194463964</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.679771261949298</v>
+        <v>1.84337354768931</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2126318486960912</v>
+        <v>0.06749115937813599</v>
       </c>
       <c r="D18">
-        <v>0.05280093921582107</v>
+        <v>0.02296635666125724</v>
       </c>
       <c r="E18">
-        <v>2.12625263953035</v>
+        <v>0.5921671335781156</v>
       </c>
       <c r="F18">
-        <v>0.6365936962996557</v>
+        <v>0.5756259647377675</v>
       </c>
       <c r="G18">
-        <v>0.0007550569406635422</v>
+        <v>0.002388830535668181</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.73526177647318</v>
+        <v>2.499368823338216</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.640483920640463</v>
+        <v>1.844128989132145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.210661140962273</v>
+        <v>0.06696439352590744</v>
       </c>
       <c r="D19">
-        <v>0.05240798941833447</v>
+        <v>0.02283753424883628</v>
       </c>
       <c r="E19">
-        <v>2.105029627756707</v>
+        <v>0.5871051551025914</v>
       </c>
       <c r="F19">
-        <v>0.6312314010289271</v>
+        <v>0.5752690384920385</v>
       </c>
       <c r="G19">
-        <v>0.0007555600845065443</v>
+        <v>0.002389109582213753</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.667677642209753</v>
+        <v>2.478857733163579</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.627398539555486</v>
+        <v>1.84442588707202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2195525100430018</v>
+        <v>0.06933613263417726</v>
       </c>
       <c r="D20">
-        <v>0.05417980117221077</v>
+        <v>0.02341720131431657</v>
       </c>
       <c r="E20">
-        <v>2.201011586338922</v>
+        <v>0.6098966658087619</v>
       </c>
       <c r="F20">
-        <v>0.6556173475625968</v>
+        <v>0.5769226131536982</v>
       </c>
       <c r="G20">
-        <v>0.0007532992754257355</v>
+        <v>0.002387861138637096</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.972189287036656</v>
+        <v>2.571133161694036</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.687147285659506</v>
+        <v>1.843253292924231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2498669973724645</v>
+        <v>0.07732668434469758</v>
       </c>
       <c r="D21">
-        <v>0.06020143548979462</v>
+        <v>0.02536386640124988</v>
       </c>
       <c r="E21">
-        <v>2.532780568034539</v>
+        <v>0.6866940110500934</v>
       </c>
       <c r="F21">
-        <v>0.7423621890881691</v>
+        <v>0.5833121381363071</v>
       </c>
       <c r="G21">
-        <v>0.0007457547586941084</v>
+        <v>0.00238379386768565</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.002708907745841</v>
+        <v>2.880687970203553</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.904171719405497</v>
+        <v>1.842191637994489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2700580466664917</v>
+        <v>0.08256553183669268</v>
       </c>
       <c r="D22">
-        <v>0.06419791158671728</v>
+        <v>0.02663531516956397</v>
       </c>
       <c r="E22">
-        <v>2.757796384403065</v>
+        <v>0.7370626989849427</v>
       </c>
       <c r="F22">
-        <v>0.8030953919023318</v>
+        <v>0.5881153085453974</v>
       </c>
       <c r="G22">
-        <v>0.000740852020948714</v>
+        <v>0.002381230120246662</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.682813638523839</v>
+        <v>3.082632152682777</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.059672616577217</v>
+        <v>1.843663753365405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2592436194490375</v>
+        <v>0.07976792649522224</v>
       </c>
       <c r="D23">
-        <v>0.06205865208545447</v>
+        <v>0.02595680004343137</v>
       </c>
       <c r="E23">
-        <v>2.636863996246689</v>
+        <v>0.7101629631188899</v>
       </c>
       <c r="F23">
-        <v>0.7702801382208548</v>
+        <v>0.5854939966796167</v>
       </c>
       <c r="G23">
-        <v>0.0007434668479657319</v>
+        <v>0.002382589827117434</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.319150820716061</v>
+        <v>2.974885122086675</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.975323768832197</v>
+        <v>1.842678527484566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2190627013012829</v>
+        <v>0.06920580664453269</v>
       </c>
       <c r="D24">
-        <v>0.05408226691375972</v>
+        <v>0.02338537200171942</v>
       </c>
       <c r="E24">
-        <v>2.195708762853116</v>
+        <v>0.6086442651510282</v>
       </c>
       <c r="F24">
-        <v>0.654261171783503</v>
+        <v>0.5768286850322824</v>
       </c>
       <c r="G24">
-        <v>0.0007534232099599941</v>
+        <v>0.002387929217043826</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.95544170000619</v>
+        <v>2.566067604417071</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.6838085867156</v>
+        <v>1.843306911713995</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1770341478977002</v>
+        <v>0.05788205108578381</v>
       </c>
       <c r="D25">
-        <v>0.04567966721916861</v>
+        <v>0.02060892038795714</v>
       </c>
       <c r="E25">
-        <v>1.747228478411699</v>
+        <v>0.4998197476007959</v>
       </c>
       <c r="F25">
-        <v>0.5436449135915566</v>
+        <v>0.5701368066566701</v>
       </c>
       <c r="G25">
-        <v>0.000764347176314184</v>
+        <v>0.002394097059738792</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.506078990238905</v>
+        <v>2.123586717193405</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.418532342401221</v>
+        <v>1.853148733943641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04959984119653882</v>
+        <v>0.1469090596013558</v>
       </c>
       <c r="D2">
-        <v>0.01856263679682968</v>
+        <v>0.03960884664743247</v>
       </c>
       <c r="E2">
-        <v>0.4201700349834852</v>
+        <v>1.433385219777406</v>
       </c>
       <c r="F2">
-        <v>0.5674485151329947</v>
+        <v>0.4719892049247605</v>
       </c>
       <c r="G2">
-        <v>0.002398993797084834</v>
+        <v>0.0007726113700319866</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.796504050486988</v>
+        <v>5.450883112989288</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.868123972704467</v>
+        <v>1.256433885499547</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04401957543043977</v>
+        <v>0.1268712400738252</v>
       </c>
       <c r="D3">
-        <v>0.01717486517247124</v>
+        <v>0.03554373620998774</v>
       </c>
       <c r="E3">
-        <v>0.3664362559451746</v>
+        <v>1.227978235719263</v>
       </c>
       <c r="F3">
-        <v>0.5670010986672978</v>
+        <v>0.4283790340121669</v>
       </c>
       <c r="G3">
-        <v>0.002402536104889593</v>
+        <v>0.0007783764371248059</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.574046805419982</v>
+        <v>4.740418647498245</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.88301773521107</v>
+        <v>1.163442106013321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04060883875882837</v>
+        <v>0.1147153624522588</v>
       </c>
       <c r="D4">
-        <v>0.01632239955186066</v>
+        <v>0.03306556024765683</v>
       </c>
       <c r="E4">
-        <v>0.3335482343720031</v>
+        <v>1.104630259256695</v>
       </c>
       <c r="F4">
-        <v>0.5673971368650328</v>
+        <v>0.4037071100825145</v>
       </c>
       <c r="G4">
-        <v>0.002404822130296762</v>
+        <v>0.0007820049856545676</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.437075300580659</v>
+        <v>4.305678479666597</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.894477981076221</v>
+        <v>1.113537988729576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03922279915526872</v>
+        <v>0.1097935229397251</v>
       </c>
       <c r="D5">
-        <v>0.01597494608599703</v>
+        <v>0.03205933655004145</v>
       </c>
       <c r="E5">
-        <v>0.32017027547721</v>
+        <v>1.05495325307561</v>
       </c>
       <c r="F5">
-        <v>0.5677261724378653</v>
+        <v>0.3941364081770473</v>
       </c>
       <c r="G5">
-        <v>0.00240578171782295</v>
+        <v>0.0007835070095836971</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.381164622911058</v>
+        <v>4.128786303086827</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.899726731771807</v>
+        <v>1.094857186827767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03899288017520064</v>
+        <v>0.1089780271236691</v>
       </c>
       <c r="D6">
-        <v>0.01591724844634257</v>
+        <v>0.03189245209449609</v>
       </c>
       <c r="E6">
-        <v>0.3179502730716308</v>
+        <v>1.046736967565465</v>
       </c>
       <c r="F6">
-        <v>0.5677909041748705</v>
+        <v>0.3925751109842892</v>
       </c>
       <c r="G6">
-        <v>0.002405942751335337</v>
+        <v>0.0007837578593103971</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.37187510997353</v>
+        <v>4.099426747208838</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.900633123342885</v>
+        <v>1.091850981832408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04059013056925664</v>
+        <v>0.1146488628479148</v>
       </c>
       <c r="D7">
-        <v>0.01631771390892567</v>
+        <v>0.03305197619739886</v>
       </c>
       <c r="E7">
-        <v>0.333367719471326</v>
+        <v>1.103958052203993</v>
       </c>
       <c r="F7">
-        <v>0.5674008969144069</v>
+        <v>0.4035761376503615</v>
       </c>
       <c r="G7">
-        <v>0.002404834958067012</v>
+        <v>0.000782025146513698</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.436321645764053</v>
+        <v>4.303291898585655</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.894546429624484</v>
+        <v>1.113279543844612</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04767250121031452</v>
+        <v>0.1399661093024491</v>
       </c>
       <c r="D8">
-        <v>0.01808422428782563</v>
+        <v>0.03820296906457799</v>
       </c>
       <c r="E8">
-        <v>0.4016195699964982</v>
+        <v>1.361916398330919</v>
       </c>
       <c r="F8">
-        <v>0.5671544148570931</v>
+        <v>0.4564867569235389</v>
       </c>
       <c r="G8">
-        <v>0.002400192196045559</v>
+        <v>0.000774581391052526</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.719881366275331</v>
+        <v>5.205539118717411</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.872776593361664</v>
+        <v>1.222781363338811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06168760645215343</v>
+        <v>0.191044930135206</v>
       </c>
       <c r="D9">
-        <v>0.0215445124919782</v>
+        <v>0.04848864109045081</v>
       </c>
       <c r="E9">
-        <v>0.5363962828930511</v>
+        <v>1.895324685178267</v>
       </c>
       <c r="F9">
-        <v>0.5720402252350709</v>
+        <v>0.5792184374765768</v>
       </c>
       <c r="G9">
-        <v>0.002391964479722057</v>
+        <v>0.0007606369375774741</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.272838049309428</v>
+        <v>6.992033094971873</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.848622745051273</v>
+        <v>1.502171820857825</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07206698040123172</v>
+        <v>0.2298494764037855</v>
       </c>
       <c r="D10">
-        <v>0.02408355087572289</v>
+        <v>0.05622836180597091</v>
       </c>
       <c r="E10">
-        <v>0.6361402998134338</v>
+        <v>2.312909417343704</v>
       </c>
       <c r="F10">
-        <v>0.5789696249358656</v>
+        <v>0.6844671290850783</v>
       </c>
       <c r="G10">
-        <v>0.002386448026048271</v>
+        <v>0.0007507095545087405</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.677149172869235</v>
+        <v>8.323538265840625</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.842408015226596</v>
+        <v>1.758589744161867</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07680794854199746</v>
+        <v>0.2478816764495519</v>
       </c>
       <c r="D11">
-        <v>0.02523777013326622</v>
+        <v>0.05980790456197838</v>
       </c>
       <c r="E11">
-        <v>0.6817075835077162</v>
+        <v>2.51083329512997</v>
       </c>
       <c r="F11">
-        <v>0.5828616686239911</v>
+        <v>0.7365156557189039</v>
       </c>
       <c r="G11">
-        <v>0.002384051906876516</v>
+        <v>0.0007462417728193965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.860650449808645</v>
+        <v>8.935571586836318</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.842134623426688</v>
+        <v>1.88934592004972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07860608684218562</v>
+        <v>0.2547741677320801</v>
       </c>
       <c r="D12">
-        <v>0.02567471066079463</v>
+        <v>0.0611736800503877</v>
       </c>
       <c r="E12">
-        <v>0.6989931265135425</v>
+        <v>2.58716336378312</v>
       </c>
       <c r="F12">
-        <v>0.5844430223795314</v>
+        <v>0.7569103023138979</v>
       </c>
       <c r="G12">
-        <v>0.002383160759576912</v>
+        <v>0.0007445549188429586</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.930075474821876</v>
+        <v>9.168448206801315</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.842402370780917</v>
+        <v>1.941176815429259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07821869853549401</v>
+        <v>0.2532867333749635</v>
       </c>
       <c r="D13">
-        <v>0.02558061414193702</v>
+        <v>0.06087904629517737</v>
       </c>
       <c r="E13">
-        <v>0.6952689935098277</v>
+        <v>2.570658751476941</v>
       </c>
       <c r="F13">
-        <v>0.5840976493879424</v>
+        <v>0.7524860099912729</v>
       </c>
       <c r="G13">
-        <v>0.002383351964363295</v>
+        <v>0.0007449180243633835</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.915126387394537</v>
+        <v>9.118241046714786</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.842328129308271</v>
+        <v>1.929906109094333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07695582529144929</v>
+        <v>0.2484473832421799</v>
       </c>
       <c r="D14">
-        <v>0.02527372036637132</v>
+        <v>0.05992005015225743</v>
       </c>
       <c r="E14">
-        <v>0.68312905629125</v>
+        <v>2.517083860739618</v>
       </c>
       <c r="F14">
-        <v>0.5829896061437125</v>
+        <v>0.7381792799828304</v>
       </c>
       <c r="G14">
-        <v>0.002383978267247077</v>
+        <v>0.0007461029061671742</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.866363362223638</v>
+        <v>8.954706925273172</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.842149186982255</v>
+        <v>1.893561877476031</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07618265003435454</v>
+        <v>0.2454917875953839</v>
       </c>
       <c r="D15">
-        <v>0.02508572056132152</v>
+        <v>0.05933403553224537</v>
       </c>
       <c r="E15">
-        <v>0.6756969996190776</v>
+        <v>2.484455127832049</v>
       </c>
       <c r="F15">
-        <v>0.5823249338784819</v>
+        <v>0.729507917132139</v>
       </c>
       <c r="G15">
-        <v>0.002384364004230255</v>
+        <v>0.0007468292695116877</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.836486340613135</v>
+        <v>8.854688960538624</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.84208805118584</v>
+        <v>1.871610802677566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07175754087135999</v>
+        <v>0.2286794577862992</v>
       </c>
       <c r="D16">
-        <v>0.02400810189340064</v>
+        <v>0.05599576243607629</v>
       </c>
       <c r="E16">
-        <v>0.633166464652362</v>
+        <v>2.300154150069801</v>
       </c>
       <c r="F16">
-        <v>0.578730254849404</v>
+        <v>0.6811566070325199</v>
       </c>
       <c r="G16">
-        <v>0.00238660689143322</v>
+        <v>0.0007510023450738457</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.66514824871615</v>
+        <v>8.283684532190989</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.842477615460353</v>
+        <v>1.750352197863464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06904787222562447</v>
+        <v>0.2184693242035394</v>
       </c>
       <c r="D17">
-        <v>0.02334679636419423</v>
+        <v>0.05396409840766836</v>
       </c>
       <c r="E17">
-        <v>0.607126557921319</v>
+        <v>2.18928708647509</v>
       </c>
       <c r="F17">
-        <v>0.5767153290488665</v>
+        <v>0.6526202224244599</v>
       </c>
       <c r="G17">
-        <v>0.002388011797364511</v>
+        <v>0.0007535734432915737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.559928194463964</v>
+        <v>7.935148648788527</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.84337354768931</v>
+        <v>1.679771261949298</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06749115937813599</v>
+        <v>0.2126318486962191</v>
       </c>
       <c r="D18">
-        <v>0.02296635666125724</v>
+        <v>0.05280093921575002</v>
       </c>
       <c r="E18">
-        <v>0.5921671335781156</v>
+        <v>2.126252639530335</v>
       </c>
       <c r="F18">
-        <v>0.5756259647377675</v>
+        <v>0.6365936962996699</v>
       </c>
       <c r="G18">
-        <v>0.002388830535668181</v>
+        <v>0.0007550569406649655</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.499368823338216</v>
+        <v>7.735261776473124</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.844128989132145</v>
+        <v>1.640483920640378</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06696439352590744</v>
+        <v>0.2106611409623866</v>
       </c>
       <c r="D19">
-        <v>0.02283753424883628</v>
+        <v>0.05240798941834868</v>
       </c>
       <c r="E19">
-        <v>0.5871051551025914</v>
+        <v>2.105029627756693</v>
       </c>
       <c r="F19">
-        <v>0.5752690384920385</v>
+        <v>0.6312314010289271</v>
       </c>
       <c r="G19">
-        <v>0.002389109582213753</v>
+        <v>0.0007555600845076224</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.478857733163579</v>
+        <v>7.667677642209696</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.84442588707202</v>
+        <v>1.627398539555429</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06933613263417726</v>
+        <v>0.2195525100426607</v>
       </c>
       <c r="D20">
-        <v>0.02341720131431657</v>
+        <v>0.05417980117226051</v>
       </c>
       <c r="E20">
-        <v>0.6098966658087619</v>
+        <v>2.201011586338922</v>
       </c>
       <c r="F20">
-        <v>0.5769226131536982</v>
+        <v>0.6556173475625968</v>
       </c>
       <c r="G20">
-        <v>0.002387861138637096</v>
+        <v>0.0007532992754519572</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.571133161694036</v>
+        <v>7.972189287036542</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.843253292924231</v>
+        <v>1.687147285659449</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07732668434469758</v>
+        <v>0.2498669973725498</v>
       </c>
       <c r="D21">
-        <v>0.02536386640124988</v>
+        <v>0.06020143548990831</v>
       </c>
       <c r="E21">
-        <v>0.6866940110500934</v>
+        <v>2.532780568034582</v>
       </c>
       <c r="F21">
-        <v>0.5833121381363071</v>
+        <v>0.7423621890881691</v>
       </c>
       <c r="G21">
-        <v>0.00238379386768565</v>
+        <v>0.0007457547587493724</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.880687970203553</v>
+        <v>9.002708907745728</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.842191637994489</v>
+        <v>1.904171719405525</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08256553183669268</v>
+        <v>0.2700580466663922</v>
       </c>
       <c r="D22">
-        <v>0.02663531516956397</v>
+        <v>0.06419791158655386</v>
       </c>
       <c r="E22">
-        <v>0.7370626989849427</v>
+        <v>2.757796384403036</v>
       </c>
       <c r="F22">
-        <v>0.5881153085453974</v>
+        <v>0.803095391902346</v>
       </c>
       <c r="G22">
-        <v>0.002381230120246662</v>
+        <v>0.0007408520209496166</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.082632152682777</v>
+        <v>9.682813638523839</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.843663753365405</v>
+        <v>2.059672616577217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07976792649522224</v>
+        <v>0.2592436194490375</v>
       </c>
       <c r="D23">
-        <v>0.02595680004343137</v>
+        <v>0.06205865208534078</v>
       </c>
       <c r="E23">
-        <v>0.7101629631188899</v>
+        <v>2.636863996246674</v>
       </c>
       <c r="F23">
-        <v>0.5854939966796167</v>
+        <v>0.7702801382208548</v>
       </c>
       <c r="G23">
-        <v>0.002382589827117434</v>
+        <v>0.0007434668479378596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.974885122086675</v>
+        <v>9.319150820716175</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.842678527484566</v>
+        <v>1.975323768832254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06920580664453269</v>
+        <v>0.2190627013013824</v>
       </c>
       <c r="D24">
-        <v>0.02338537200171942</v>
+        <v>0.05408226691403684</v>
       </c>
       <c r="E24">
-        <v>0.6086442651510282</v>
+        <v>2.195708762853087</v>
       </c>
       <c r="F24">
-        <v>0.5768286850322824</v>
+        <v>0.654261171783503</v>
       </c>
       <c r="G24">
-        <v>0.002387929217043826</v>
+        <v>0.0007534232099057347</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.566067604417071</v>
+        <v>7.955441700006077</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.843306911713995</v>
+        <v>1.683808586715685</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05788205108578381</v>
+        <v>0.1770341478976007</v>
       </c>
       <c r="D25">
-        <v>0.02060892038795714</v>
+        <v>0.04567966721911887</v>
       </c>
       <c r="E25">
-        <v>0.4998197476007959</v>
+        <v>1.747228478411699</v>
       </c>
       <c r="F25">
-        <v>0.5701368066566701</v>
+        <v>0.5436449135915637</v>
       </c>
       <c r="G25">
-        <v>0.002394097059738792</v>
+        <v>0.000764347176313962</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.123586717193405</v>
+        <v>6.506078990238848</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.853148733943641</v>
+        <v>1.418532342401278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1469090596013558</v>
+        <v>0.03714933193503356</v>
       </c>
       <c r="D2">
-        <v>0.03960884664743247</v>
+        <v>0.04216528491541638</v>
       </c>
       <c r="E2">
-        <v>1.433385219777406</v>
+        <v>0.2030173081409501</v>
       </c>
       <c r="F2">
-        <v>0.4719892049247605</v>
+        <v>0.7590046674045681</v>
       </c>
       <c r="G2">
-        <v>0.0007726113700319866</v>
+        <v>0.6724714256934732</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002431409746799229</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006314446709853705</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4672117964612852</v>
       </c>
       <c r="K2">
-        <v>5.450883112989288</v>
+        <v>0.5920964482007918</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.496367899051791</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.256433885499547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.030192139713698</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1268712400738252</v>
+        <v>0.03166501533765853</v>
       </c>
       <c r="D3">
-        <v>0.03554373620998774</v>
+        <v>0.03951444765655054</v>
       </c>
       <c r="E3">
-        <v>1.227978235719263</v>
+        <v>0.1785266165018875</v>
       </c>
       <c r="F3">
-        <v>0.4283790340121669</v>
+        <v>0.7017920784905058</v>
       </c>
       <c r="G3">
-        <v>0.0007783764371248059</v>
+        <v>0.6227470391009149</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.588968538499216E-09</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003704592540551221</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.449626466222611</v>
       </c>
       <c r="K3">
-        <v>4.740418647498245</v>
+        <v>0.5513182844134761</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.046607412511605</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.163442106013321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8961638323634418</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1147153624522588</v>
+        <v>0.0282698488837525</v>
       </c>
       <c r="D4">
-        <v>0.03306556024765683</v>
+        <v>0.03788702794033938</v>
       </c>
       <c r="E4">
-        <v>1.104630259256695</v>
+        <v>0.1635382108734262</v>
       </c>
       <c r="F4">
-        <v>0.4037071100825145</v>
+        <v>0.6673616764017396</v>
       </c>
       <c r="G4">
-        <v>0.0007820049856545676</v>
+        <v>0.5928292668592974</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.989026923018507E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002458517023044671</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4392233803354912</v>
       </c>
       <c r="K4">
-        <v>4.305678479666597</v>
+        <v>0.5265196780423409</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.770368250965703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.113537988729576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8139804495574765</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1097935229397251</v>
+        <v>0.02665030510548405</v>
       </c>
       <c r="D5">
-        <v>0.03205933655004145</v>
+        <v>0.03729071788708893</v>
       </c>
       <c r="E5">
-        <v>1.05495325307561</v>
+        <v>0.1574219378690884</v>
       </c>
       <c r="F5">
-        <v>0.3941364081770473</v>
+        <v>0.6523486921826489</v>
       </c>
       <c r="G5">
-        <v>0.0007835070095836971</v>
+        <v>0.5795250192445849</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001998370551190565</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0020891267387535</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4344348754232925</v>
       </c>
       <c r="K5">
-        <v>4.128786303086827</v>
+        <v>0.5152950215540812</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.657697002768458</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.094857186827767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7805001842118955</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1089780271236691</v>
+        <v>0.02610368388349116</v>
       </c>
       <c r="D6">
-        <v>0.03189245209449609</v>
+        <v>0.03727411966181648</v>
       </c>
       <c r="E6">
-        <v>1.046736967565465</v>
+        <v>0.1563866234243783</v>
       </c>
       <c r="F6">
-        <v>0.3925751109842892</v>
+        <v>0.6484699499519024</v>
       </c>
       <c r="G6">
-        <v>0.0007837578593103971</v>
+        <v>0.5757959455305723</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002205082385524637</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00210732347688225</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4328619103441866</v>
       </c>
       <c r="K6">
-        <v>4.099426747208838</v>
+        <v>0.512004364363591</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.638922498054029</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.091850981832408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7749341488594581</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1146488628479148</v>
+        <v>0.02748500422731581</v>
       </c>
       <c r="D7">
-        <v>0.03305197619739886</v>
+        <v>0.03810507176594768</v>
       </c>
       <c r="E7">
-        <v>1.103958052203993</v>
+        <v>0.163400616797805</v>
       </c>
       <c r="F7">
-        <v>0.4035761376503615</v>
+        <v>0.663342091356256</v>
       </c>
       <c r="G7">
-        <v>0.000782025146513698</v>
+        <v>0.5884685594365919</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001021202228501661</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002639678892890629</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4370178910348557</v>
       </c>
       <c r="K7">
-        <v>4.303291898585655</v>
+        <v>0.522454079898246</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.768677071170913</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.113279543844612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8135079610600258</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1399661093024491</v>
+        <v>0.03423628366562781</v>
       </c>
       <c r="D8">
-        <v>0.03820296906457799</v>
+        <v>0.04155577870832516</v>
       </c>
       <c r="E8">
-        <v>1.361916398330919</v>
+        <v>0.1944860842754963</v>
       </c>
       <c r="F8">
-        <v>0.4564867569235389</v>
+        <v>0.7340512211512191</v>
       </c>
       <c r="G8">
-        <v>0.000774581391052526</v>
+        <v>0.6496326158578967</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001037600625919399</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005544779842247216</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4582273471103235</v>
       </c>
       <c r="K8">
-        <v>5.205539118717411</v>
+        <v>0.5727732065194999</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.341044489072601</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.222781363338811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9839166939496664</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.191044930135206</v>
+        <v>0.04871551450310108</v>
       </c>
       <c r="D9">
-        <v>0.04848864109045081</v>
+        <v>0.04792084584842371</v>
       </c>
       <c r="E9">
-        <v>1.895324685178267</v>
+        <v>0.2561366781264738</v>
       </c>
       <c r="F9">
-        <v>0.5792184374765768</v>
+        <v>0.88592008293611</v>
       </c>
       <c r="G9">
-        <v>0.0007606369375774741</v>
+        <v>0.7827500457718912</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002273347545390658</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01411644137687507</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5071364283165281</v>
       </c>
       <c r="K9">
-        <v>6.992033094971873</v>
+        <v>0.6808320227923659</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.464641176833481</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.502171820857825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.319587532625164</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2298494764037855</v>
+        <v>0.06010492339109419</v>
       </c>
       <c r="D10">
-        <v>0.05622836180597091</v>
+        <v>0.05400761418883349</v>
       </c>
       <c r="E10">
-        <v>2.312909417343704</v>
+        <v>0.2776363459035238</v>
       </c>
       <c r="F10">
-        <v>0.6844671290850783</v>
+        <v>0.9803726568750477</v>
       </c>
       <c r="G10">
-        <v>0.0007507095545087405</v>
+        <v>0.860889111615009</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005351561613057942</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02269407440253257</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5333920719830445</v>
       </c>
       <c r="K10">
-        <v>8.323538265840625</v>
+        <v>0.744671538879139</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.319768208102232</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.758589744161867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.530015030435436</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2478816764495519</v>
+        <v>0.07470361976157847</v>
       </c>
       <c r="D11">
-        <v>0.05980790456197838</v>
+        <v>0.07003168774660651</v>
       </c>
       <c r="E11">
-        <v>2.51083329512997</v>
+        <v>0.1247667476416083</v>
       </c>
       <c r="F11">
-        <v>0.7365156557189039</v>
+        <v>0.8491060181585084</v>
       </c>
       <c r="G11">
-        <v>0.0007462417728193965</v>
+        <v>0.7082946221550941</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02335613563874261</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02623815378607652</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4495082218415831</v>
       </c>
       <c r="K11">
-        <v>8.935571586836318</v>
+        <v>0.6378038131386603</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.95254650683745</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.88934592004972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.309777290521367</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2547741677320801</v>
+        <v>0.08721898691798913</v>
       </c>
       <c r="D12">
-        <v>0.0611736800503877</v>
+        <v>0.08415798295163057</v>
       </c>
       <c r="E12">
-        <v>2.58716336378312</v>
+        <v>0.05807705409769515</v>
       </c>
       <c r="F12">
-        <v>0.7569103023138979</v>
+        <v>0.7316245178682408</v>
       </c>
       <c r="G12">
-        <v>0.0007445549188429586</v>
+        <v>0.5809862458531683</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06135500929200788</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02716764391249171</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3817529078954465</v>
       </c>
       <c r="K12">
-        <v>9.168448206801315</v>
+        <v>0.5465760446508128</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.319526632857105</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.941176815429259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.09685300911481</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2532867333749635</v>
+        <v>0.09741705259199307</v>
       </c>
       <c r="D13">
-        <v>0.06087904629517737</v>
+        <v>0.09778994552694087</v>
       </c>
       <c r="E13">
-        <v>2.570658751476941</v>
+        <v>0.05260322980747389</v>
       </c>
       <c r="F13">
-        <v>0.7524860099912729</v>
+        <v>0.6117882550745932</v>
       </c>
       <c r="G13">
-        <v>0.0007449180243633835</v>
+        <v>0.4589959633780722</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1162795841984519</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02625171297015427</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3189490489571085</v>
       </c>
       <c r="K13">
-        <v>9.118241046714786</v>
+        <v>0.4558966280403283</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.498661275795939</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.929906109094333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.878769707516966</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2484473832421799</v>
+        <v>0.1032495875936092</v>
       </c>
       <c r="D14">
-        <v>0.05992005015225743</v>
+        <v>0.1073792009978405</v>
       </c>
       <c r="E14">
-        <v>2.517083860739618</v>
+        <v>0.08468271084499435</v>
       </c>
       <c r="F14">
-        <v>0.7381792799828304</v>
+        <v>0.5275891289830881</v>
       </c>
       <c r="G14">
-        <v>0.0007461029061671742</v>
+        <v>0.3772662190061595</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1650353265103348</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02487824979576914</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2777492420989773</v>
       </c>
       <c r="K14">
-        <v>8.954706925273172</v>
+        <v>0.3930967757462653</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.538739489415377</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.893561877476031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7276868795667326</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2454917875953839</v>
+        <v>0.1035256832514762</v>
       </c>
       <c r="D15">
-        <v>0.05933403553224537</v>
+        <v>0.109449357291922</v>
       </c>
       <c r="E15">
-        <v>2.484455127832049</v>
+        <v>0.09669857389830128</v>
       </c>
       <c r="F15">
-        <v>0.729507917132139</v>
+        <v>0.5047127705698742</v>
       </c>
       <c r="G15">
-        <v>0.0007468292695116877</v>
+        <v>0.3561093663124524</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1773159893317455</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02421926691173848</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2676065500830163</v>
       </c>
       <c r="K15">
-        <v>8.854688960538624</v>
+        <v>0.3761560975433156</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.506027673974415</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.871610802677566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6879864093688326</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2286794577862992</v>
+        <v>0.09540943642831223</v>
       </c>
       <c r="D16">
-        <v>0.05599576243607629</v>
+        <v>0.1036765737307235</v>
       </c>
       <c r="E16">
-        <v>2.300154150069801</v>
+        <v>0.08913656700861949</v>
       </c>
       <c r="F16">
-        <v>0.6811566070325199</v>
+        <v>0.4876564465065911</v>
       </c>
       <c r="G16">
-        <v>0.0007510023450738457</v>
+        <v>0.3465323083541989</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1635747282841322</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02049550858881943</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2683242488582636</v>
       </c>
       <c r="K16">
-        <v>8.283684532190989</v>
+        <v>0.3663570911382408</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.091450533545299</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.750352197863464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6494329906265648</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2184693242035394</v>
+        <v>0.08611030463983127</v>
       </c>
       <c r="D17">
-        <v>0.05396409840766836</v>
+        <v>0.09408484184267252</v>
       </c>
       <c r="E17">
-        <v>2.18928708647509</v>
+        <v>0.06048765989165084</v>
       </c>
       <c r="F17">
-        <v>0.6526202224244599</v>
+        <v>0.5183810585351125</v>
       </c>
       <c r="G17">
-        <v>0.0007535734432915737</v>
+        <v>0.3812682041504445</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1253355896432709</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01847065315449825</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2902089394328584</v>
       </c>
       <c r="K17">
-        <v>7.935148648788527</v>
+        <v>0.3912951456698437</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.753676532006068</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.679771261949298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6971820810793332</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2126318486962191</v>
+        <v>0.0761118035546815</v>
       </c>
       <c r="D18">
-        <v>0.05280093921575002</v>
+        <v>0.08077712147333926</v>
       </c>
       <c r="E18">
-        <v>2.126252639530335</v>
+        <v>0.0421714386811135</v>
       </c>
       <c r="F18">
-        <v>0.6365936962996699</v>
+        <v>0.5999826175309622</v>
       </c>
       <c r="G18">
-        <v>0.0007550569406649655</v>
+        <v>0.46638432351169</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07252950368164335</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01738923233525469</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3367837296762843</v>
       </c>
       <c r="K18">
-        <v>7.735261776473124</v>
+        <v>0.4547366388083276</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.447854706541762</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.640483920640378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8339275900461018</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2106611409623866</v>
+        <v>0.0651091515450517</v>
       </c>
       <c r="D19">
-        <v>0.05240798941834868</v>
+        <v>0.06757716711197759</v>
       </c>
       <c r="E19">
-        <v>2.105029627756693</v>
+        <v>0.08087625821926991</v>
       </c>
       <c r="F19">
-        <v>0.6312314010289271</v>
+        <v>0.7175849844118858</v>
       </c>
       <c r="G19">
-        <v>0.0007555600845076224</v>
+        <v>0.5897400133019772</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02788671373770768</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01759706003012962</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4013746078537679</v>
       </c>
       <c r="K19">
-        <v>7.667677642209696</v>
+        <v>0.5443992392222086</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.195202598716378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.627398539555429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.047865477576323</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2195525100426607</v>
+        <v>0.05466879249082268</v>
       </c>
       <c r="D20">
-        <v>0.05417980117226051</v>
+        <v>0.05322273581983694</v>
       </c>
       <c r="E20">
-        <v>2.201011586338922</v>
+        <v>0.2707104039992245</v>
       </c>
       <c r="F20">
-        <v>0.6556173475625968</v>
+        <v>0.9423862497180835</v>
       </c>
       <c r="G20">
-        <v>0.0007532992754519572</v>
+        <v>0.8260273195113825</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004387667872784107</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02076660189780277</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5192031525030671</v>
       </c>
       <c r="K20">
-        <v>7.972189287036542</v>
+        <v>0.7148159675072137</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.095298865878192</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.687147285659449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.472997805681345</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2498669973725498</v>
+        <v>0.06221272379303144</v>
       </c>
       <c r="D21">
-        <v>0.06020143548990831</v>
+        <v>0.05578456644906282</v>
       </c>
       <c r="E21">
-        <v>2.532780568034582</v>
+        <v>0.3253372335345119</v>
       </c>
       <c r="F21">
-        <v>0.7423621890881691</v>
+        <v>1.05064898268364</v>
       </c>
       <c r="G21">
-        <v>0.0007457547587493724</v>
+        <v>0.9247927748746037</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007506857063763528</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02831859604441878</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5591607875184792</v>
       </c>
       <c r="K21">
-        <v>9.002708907745728</v>
+        <v>0.7913764768365823</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.711708631954878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.904171719405525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.693874595741264</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2700580466663922</v>
+        <v>0.06877295395690197</v>
       </c>
       <c r="D22">
-        <v>0.06419791158655386</v>
+        <v>0.05780114883057763</v>
       </c>
       <c r="E22">
-        <v>2.757796384403036</v>
+        <v>0.3488879424453017</v>
       </c>
       <c r="F22">
-        <v>0.803095391902346</v>
+        <v>1.117487350821264</v>
       </c>
       <c r="G22">
-        <v>0.0007408520209496166</v>
+        <v>0.9848585605272291</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00987797407343995</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.03357180550694849</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5830095944738218</v>
       </c>
       <c r="K22">
-        <v>9.682813638523839</v>
+        <v>0.8392665808999169</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.129863468836277</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.059672616577217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.819636597323324</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2592436194490375</v>
+        <v>0.06620349775036516</v>
       </c>
       <c r="D23">
-        <v>0.06205865208534078</v>
+        <v>0.05643485694410089</v>
       </c>
       <c r="E23">
-        <v>2.636863996246674</v>
+        <v>0.3363679066555463</v>
       </c>
       <c r="F23">
-        <v>0.7702801382208548</v>
+        <v>1.08625078086277</v>
       </c>
       <c r="G23">
-        <v>0.0007434668479378596</v>
+        <v>0.9576766694308105</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008585896230175583</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03052719593712361</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5727432149612781</v>
       </c>
       <c r="K23">
-        <v>9.319150820716175</v>
+        <v>0.8183422705634911</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.90682909000202</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.975323768832254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.752498199074239</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2190627013013824</v>
+        <v>0.0550917021869779</v>
       </c>
       <c r="D24">
-        <v>0.05408226691403684</v>
+        <v>0.05172884209476081</v>
       </c>
       <c r="E24">
-        <v>2.195708762853087</v>
+        <v>0.2892892240731726</v>
       </c>
       <c r="F24">
-        <v>0.654261171783503</v>
+        <v>0.9635791123457125</v>
       </c>
       <c r="G24">
-        <v>0.0007534232099057347</v>
+        <v>0.8495146705092793</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004445728394905424</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02043289896396061</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5313010571893528</v>
       </c>
       <c r="K24">
-        <v>7.955441700006077</v>
+        <v>0.7330404529312418</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.064449184019452</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.683808586715685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.499414993916574</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1770341478976007</v>
+        <v>0.0433893665821472</v>
       </c>
       <c r="D25">
-        <v>0.04567966721911887</v>
+        <v>0.04662409005859303</v>
       </c>
       <c r="E25">
-        <v>1.747228478411699</v>
+        <v>0.2392614676083511</v>
       </c>
       <c r="F25">
-        <v>0.5436449135915637</v>
+        <v>0.8370840662855699</v>
       </c>
       <c r="G25">
-        <v>0.000764347176313962</v>
+        <v>0.7384011847157268</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001420540696681627</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01170400104623859</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4896101428596467</v>
       </c>
       <c r="K25">
-        <v>6.506078990238848</v>
+        <v>0.6441415926698753</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.159985546259065</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.418532342401278</v>
+        <v>1.228483515749573</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03714933193503356</v>
+        <v>0.01303076878642884</v>
       </c>
       <c r="D2">
-        <v>0.04216528491541638</v>
+        <v>0.05162262578626553</v>
       </c>
       <c r="E2">
-        <v>0.2030173081409501</v>
+        <v>0.2011866967390219</v>
       </c>
       <c r="F2">
-        <v>0.7590046674045681</v>
+        <v>0.626833759589644</v>
       </c>
       <c r="G2">
-        <v>0.6724714256934732</v>
+        <v>0.5093037085079004</v>
       </c>
       <c r="H2">
-        <v>0.0002431409746799229</v>
+        <v>0.000192136543628818</v>
       </c>
       <c r="I2">
-        <v>0.006314446709853705</v>
+        <v>0.005948944882891105</v>
       </c>
       <c r="J2">
-        <v>0.4672117964612852</v>
+        <v>0.4329153650758286</v>
       </c>
       <c r="K2">
-        <v>0.5920964482007918</v>
+        <v>0.4562370620412679</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2348744485911141</v>
       </c>
       <c r="M2">
-        <v>3.496367899051791</v>
+        <v>0.1245902315966561</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.030192139713698</v>
+        <v>3.490228378238839</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.029360052656514</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03166501533765853</v>
+        <v>0.01121886374262715</v>
       </c>
       <c r="D3">
-        <v>0.03951444765655054</v>
+        <v>0.04699525070179789</v>
       </c>
       <c r="E3">
-        <v>0.1785266165018875</v>
+        <v>0.1777376824094681</v>
       </c>
       <c r="F3">
-        <v>0.7017920784905058</v>
+        <v>0.5891409822937916</v>
       </c>
       <c r="G3">
-        <v>0.6227470391009149</v>
+        <v>0.4814457188877128</v>
       </c>
       <c r="H3">
-        <v>4.588968538499216E-09</v>
+        <v>7.097631560259998E-07</v>
       </c>
       <c r="I3">
-        <v>0.003704592540551221</v>
+        <v>0.003806704022951912</v>
       </c>
       <c r="J3">
-        <v>0.449626466222611</v>
+        <v>0.4220304204171725</v>
       </c>
       <c r="K3">
-        <v>0.5513182844134761</v>
+        <v>0.4342549242554199</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.234276309989415</v>
       </c>
       <c r="M3">
-        <v>3.046607412511605</v>
+        <v>0.108992908145062</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8961638323634418</v>
+        <v>3.044072954783815</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8958410408656619</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0282698488837525</v>
+        <v>0.01015877180765301</v>
       </c>
       <c r="D4">
-        <v>0.03788702794033938</v>
+        <v>0.04417821749160566</v>
       </c>
       <c r="E4">
-        <v>0.1635382108734262</v>
+        <v>0.1633641746902974</v>
       </c>
       <c r="F4">
-        <v>0.6673616764017396</v>
+        <v>0.5664343028104</v>
       </c>
       <c r="G4">
-        <v>0.5928292668592974</v>
+        <v>0.4648808897075725</v>
       </c>
       <c r="H4">
-        <v>9.989026923018507E-05</v>
+        <v>0.0001034225944900324</v>
       </c>
       <c r="I4">
-        <v>0.002458517023044671</v>
+        <v>0.002744640332529968</v>
       </c>
       <c r="J4">
-        <v>0.4392233803354912</v>
+        <v>0.4153949820109233</v>
       </c>
       <c r="K4">
-        <v>0.5265196780423409</v>
+        <v>0.4207669743319187</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2337088943226284</v>
       </c>
       <c r="M4">
-        <v>2.770368250965703</v>
+        <v>0.100147457373879</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8139804495574765</v>
+        <v>2.769825071882877</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8139143155940474</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02665030510548405</v>
+        <v>0.009610752810708334</v>
       </c>
       <c r="D5">
-        <v>0.03729071788708893</v>
+        <v>0.04311266647094669</v>
       </c>
       <c r="E5">
-        <v>0.1574219378690884</v>
+        <v>0.1574954360901977</v>
       </c>
       <c r="F5">
-        <v>0.6523486921826489</v>
+        <v>0.5563354856426344</v>
       </c>
       <c r="G5">
-        <v>0.5795250192445849</v>
+        <v>0.45725438511829</v>
       </c>
       <c r="H5">
-        <v>0.0001998370551190565</v>
+        <v>0.0001977285388132799</v>
       </c>
       <c r="I5">
-        <v>0.0020891267387535</v>
+        <v>0.002439075625511933</v>
       </c>
       <c r="J5">
-        <v>0.4344348754232925</v>
+        <v>0.4121640846285004</v>
       </c>
       <c r="K5">
-        <v>0.5152950215540812</v>
+        <v>0.4143450688786103</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2330131453833424</v>
       </c>
       <c r="M5">
-        <v>2.657697002768458</v>
+        <v>0.09643969883124015</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7805001842118955</v>
+        <v>2.657923569596846</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7805272225713864</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02610368388349116</v>
+        <v>0.009367056418209785</v>
       </c>
       <c r="D6">
-        <v>0.03727411966181648</v>
+        <v>0.04303035583417625</v>
       </c>
       <c r="E6">
-        <v>0.1563866234243783</v>
+        <v>0.1565037268126517</v>
       </c>
       <c r="F6">
-        <v>0.6484699499519024</v>
+        <v>0.5535114490390995</v>
       </c>
       <c r="G6">
-        <v>0.5757959455305723</v>
+        <v>0.4547768702025081</v>
       </c>
       <c r="H6">
-        <v>0.0002205082385524637</v>
+        <v>0.000216977022898357</v>
       </c>
       <c r="I6">
-        <v>0.00210732347688225</v>
+        <v>0.002483669331664551</v>
       </c>
       <c r="J6">
-        <v>0.4328619103441866</v>
+        <v>0.4109731623429411</v>
       </c>
       <c r="K6">
-        <v>0.512004364363591</v>
+        <v>0.4121520397580838</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2323903127289846</v>
       </c>
       <c r="M6">
-        <v>2.638922498054029</v>
+        <v>0.09548830443735312</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7749341488594581</v>
+        <v>2.639282719918072</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.77497699960891</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02748500422731581</v>
+        <v>0.009850524186919785</v>
       </c>
       <c r="D7">
-        <v>0.03810507176594768</v>
+        <v>0.0445824848922598</v>
       </c>
       <c r="E7">
-        <v>0.163400616797805</v>
+        <v>0.1632100226200102</v>
       </c>
       <c r="F7">
-        <v>0.663342091356256</v>
+        <v>0.561238108541076</v>
       </c>
       <c r="G7">
-        <v>0.5884685594365919</v>
+        <v>0.4638724835181449</v>
       </c>
       <c r="H7">
-        <v>0.0001021202228501661</v>
+        <v>0.00010603792598185</v>
       </c>
       <c r="I7">
-        <v>0.002639678892890629</v>
+        <v>0.002966471530014836</v>
       </c>
       <c r="J7">
-        <v>0.4370178910348557</v>
+        <v>0.4077999053339312</v>
       </c>
       <c r="K7">
-        <v>0.522454079898246</v>
+        <v>0.4162668945082189</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2317620404888956</v>
       </c>
       <c r="M7">
-        <v>2.768677071170913</v>
+        <v>0.09870225737355298</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8135079610600258</v>
+        <v>2.768082344601225</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8134355149778045</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03423628366562781</v>
+        <v>0.01223380935950757</v>
       </c>
       <c r="D8">
-        <v>0.04155577870832516</v>
+        <v>0.0509210085607279</v>
       </c>
       <c r="E8">
-        <v>0.1944860842754963</v>
+        <v>0.1929429876240718</v>
       </c>
       <c r="F8">
-        <v>0.7340512211512191</v>
+        <v>0.6032776484842941</v>
       </c>
       <c r="G8">
-        <v>0.6496326158578967</v>
+        <v>0.5033167535391243</v>
       </c>
       <c r="H8">
-        <v>0.0001037600625919399</v>
+        <v>7.580193788681022E-05</v>
       </c>
       <c r="I8">
-        <v>0.005544779842247216</v>
+        <v>0.005399124843309622</v>
       </c>
       <c r="J8">
-        <v>0.4582273471103235</v>
+        <v>0.4079865609383972</v>
       </c>
       <c r="K8">
-        <v>0.5727732065194999</v>
+        <v>0.4402074932074385</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2312191020652961</v>
       </c>
       <c r="M8">
-        <v>3.341044489072601</v>
+        <v>0.1161725055064124</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9839166939496664</v>
+        <v>3.335942990780211</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9832382833865978</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04871551450310108</v>
+        <v>0.01775405810738206</v>
       </c>
       <c r="D9">
-        <v>0.04792084584842371</v>
+        <v>0.06249837305819028</v>
       </c>
       <c r="E9">
-        <v>0.2561366781264738</v>
+        <v>0.2517855158777493</v>
       </c>
       <c r="F9">
-        <v>0.88592008293611</v>
+        <v>0.7022853744561672</v>
       </c>
       <c r="G9">
-        <v>0.7827500457718912</v>
+        <v>0.5827400682041173</v>
       </c>
       <c r="H9">
-        <v>0.002273347545390658</v>
+        <v>0.001922403004748441</v>
       </c>
       <c r="I9">
-        <v>0.01411644137687507</v>
+        <v>0.01206780360307835</v>
       </c>
       <c r="J9">
-        <v>0.5071364283165281</v>
+        <v>0.4324538424627775</v>
       </c>
       <c r="K9">
-        <v>0.6808320227923659</v>
+        <v>0.4977765974180457</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2329439034908418</v>
       </c>
       <c r="M9">
-        <v>4.464641176833481</v>
+        <v>0.1598497658826616</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.319587532625164</v>
+        <v>4.448839542972905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.317215541559733</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06010492339109419</v>
+        <v>0.02371986251722902</v>
       </c>
       <c r="D10">
-        <v>0.05400761418883349</v>
+        <v>0.07381550399366432</v>
       </c>
       <c r="E10">
-        <v>0.2776363459035238</v>
+        <v>0.2710036930424238</v>
       </c>
       <c r="F10">
-        <v>0.9803726568750477</v>
+        <v>0.7505608818272549</v>
       </c>
       <c r="G10">
-        <v>0.860889111615009</v>
+        <v>0.6416577196307287</v>
       </c>
       <c r="H10">
-        <v>0.005351561613057942</v>
+        <v>0.004577210759407979</v>
       </c>
       <c r="I10">
-        <v>0.02269407440253257</v>
+        <v>0.01855072110089306</v>
       </c>
       <c r="J10">
-        <v>0.5333920719830445</v>
+        <v>0.4108437941336405</v>
       </c>
       <c r="K10">
-        <v>0.744671538879139</v>
+        <v>0.5210338088857327</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2263293755119022</v>
       </c>
       <c r="M10">
-        <v>5.319768208102232</v>
+        <v>0.1880431710687631</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.530015030435436</v>
+        <v>5.293933621404108</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.525982962495405</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07470361976157847</v>
+        <v>0.03682097857694089</v>
       </c>
       <c r="D11">
-        <v>0.07003168774660651</v>
+        <v>0.09610351686699659</v>
       </c>
       <c r="E11">
-        <v>0.1247667476416083</v>
+        <v>0.1179494952607065</v>
       </c>
       <c r="F11">
-        <v>0.8491060181585084</v>
+        <v>0.6247769152182769</v>
       </c>
       <c r="G11">
-        <v>0.7082946221550941</v>
+        <v>0.5505550768919534</v>
       </c>
       <c r="H11">
-        <v>0.02335613563874261</v>
+        <v>0.02255042379916006</v>
       </c>
       <c r="I11">
-        <v>0.02623815378607652</v>
+        <v>0.02132967404206898</v>
       </c>
       <c r="J11">
-        <v>0.4495082218415831</v>
+        <v>0.295339228783881</v>
       </c>
       <c r="K11">
-        <v>0.6378038131386603</v>
+        <v>0.4286421598003827</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1875050855839753</v>
       </c>
       <c r="M11">
-        <v>5.95254650683745</v>
+        <v>0.1595116924916198</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.309777290521367</v>
+        <v>5.922215192409226</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.305955592543214</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08721898691798913</v>
+        <v>0.0492510634441814</v>
       </c>
       <c r="D12">
-        <v>0.08415798295163057</v>
+        <v>0.113573801341758</v>
       </c>
       <c r="E12">
-        <v>0.05807705409769515</v>
+        <v>0.05155583163796518</v>
       </c>
       <c r="F12">
-        <v>0.7316245178682408</v>
+        <v>0.5271418148880826</v>
       </c>
       <c r="G12">
-        <v>0.5809862458531683</v>
+        <v>0.463492520406831</v>
       </c>
       <c r="H12">
-        <v>0.06135500929200788</v>
+        <v>0.060599008238583</v>
       </c>
       <c r="I12">
-        <v>0.02716764391249171</v>
+        <v>0.02201477468915058</v>
       </c>
       <c r="J12">
-        <v>0.3817529078954465</v>
+        <v>0.2353490738581883</v>
       </c>
       <c r="K12">
-        <v>0.5465760446508128</v>
+        <v>0.3606531522567096</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1619869641029119</v>
       </c>
       <c r="M12">
-        <v>6.319526632857105</v>
+        <v>0.1347579439346021</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.09685300911481</v>
+        <v>6.287720270294358</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.093599583457426</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09741705259199307</v>
+        <v>0.06023282885700354</v>
       </c>
       <c r="D13">
-        <v>0.09778994552694087</v>
+        <v>0.127426197551415</v>
       </c>
       <c r="E13">
-        <v>0.05260322980747389</v>
+        <v>0.04675160736005246</v>
       </c>
       <c r="F13">
-        <v>0.6117882550745932</v>
+        <v>0.4420396353643454</v>
       </c>
       <c r="G13">
-        <v>0.4589959633780722</v>
+        <v>0.3660346234462395</v>
       </c>
       <c r="H13">
-        <v>0.1162795841984519</v>
+        <v>0.1156380656735507</v>
       </c>
       <c r="I13">
-        <v>0.02625171297015427</v>
+        <v>0.02139315403370023</v>
       </c>
       <c r="J13">
-        <v>0.3189490489571085</v>
+        <v>0.2077121032464646</v>
       </c>
       <c r="K13">
-        <v>0.4558966280403283</v>
+        <v>0.303562102236846</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.142909349789079</v>
       </c>
       <c r="M13">
-        <v>6.498661275795939</v>
+        <v>0.1106555200854906</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.878769707516966</v>
+        <v>6.468072188964982</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8762937054411921</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1032495875936092</v>
+        <v>0.06705538415815937</v>
       </c>
       <c r="D14">
-        <v>0.1073792009978405</v>
+        <v>0.1355289904582406</v>
       </c>
       <c r="E14">
-        <v>0.08468271084499435</v>
+        <v>0.07942650242735283</v>
       </c>
       <c r="F14">
-        <v>0.5275891289830881</v>
+        <v>0.3871554598677065</v>
       </c>
       <c r="G14">
-        <v>0.3772662190061595</v>
+        <v>0.2961076638383702</v>
       </c>
       <c r="H14">
-        <v>0.1650353265103348</v>
+        <v>0.1644915706920784</v>
       </c>
       <c r="I14">
-        <v>0.02487824979576914</v>
+        <v>0.02046646324976109</v>
       </c>
       <c r="J14">
-        <v>0.2777492420989773</v>
+        <v>0.1985685782444975</v>
       </c>
       <c r="K14">
-        <v>0.3930967757462653</v>
+        <v>0.2676224551160296</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1318447487071204</v>
       </c>
       <c r="M14">
-        <v>6.538739489415377</v>
+        <v>0.09403539691476936</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7276868795667326</v>
+        <v>6.510185570894805</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7257741444460351</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1035256832514762</v>
+        <v>0.06772992458738258</v>
       </c>
       <c r="D15">
-        <v>0.109449357291922</v>
+        <v>0.1365863091760673</v>
       </c>
       <c r="E15">
-        <v>0.09669857389830128</v>
+        <v>0.09167398160823126</v>
       </c>
       <c r="F15">
-        <v>0.5047127705698742</v>
+        <v>0.3740598218902917</v>
       </c>
       <c r="G15">
-        <v>0.3561093663124524</v>
+        <v>0.2764032327020871</v>
       </c>
       <c r="H15">
-        <v>0.1773159893317455</v>
+        <v>0.1768122888536396</v>
       </c>
       <c r="I15">
-        <v>0.02421926691173848</v>
+        <v>0.02005444889371066</v>
       </c>
       <c r="J15">
-        <v>0.2676065500830163</v>
+        <v>0.1997991028479902</v>
       </c>
       <c r="K15">
-        <v>0.3761560975433156</v>
+        <v>0.2592310861226785</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1296688053374595</v>
       </c>
       <c r="M15">
-        <v>6.506027673974415</v>
+        <v>0.08950219105249602</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6879864093688326</v>
+        <v>6.478563252596359</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6862395398523731</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09540943642831223</v>
+        <v>0.06006463465300982</v>
       </c>
       <c r="D16">
-        <v>0.1036765737307235</v>
+        <v>0.1256353746326937</v>
       </c>
       <c r="E16">
-        <v>0.08913656700861949</v>
+        <v>0.0849773062144763</v>
       </c>
       <c r="F16">
-        <v>0.4876564465065911</v>
+        <v>0.3798795593668629</v>
       </c>
       <c r="G16">
-        <v>0.3465323083541989</v>
+        <v>0.2549574726268276</v>
       </c>
       <c r="H16">
-        <v>0.1635747282841322</v>
+        <v>0.1632375196925722</v>
       </c>
       <c r="I16">
-        <v>0.02049550858881943</v>
+        <v>0.01739715350069826</v>
       </c>
       <c r="J16">
-        <v>0.2683242488582636</v>
+        <v>0.234792468825809</v>
       </c>
       <c r="K16">
-        <v>0.3663570911382408</v>
+        <v>0.2664024034822035</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1361923675041474</v>
       </c>
       <c r="M16">
-        <v>6.091450533545299</v>
+        <v>0.08620731659118874</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6494329906265648</v>
+        <v>6.069360524930801</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6480455694255127</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08611030463983127</v>
+        <v>0.05108875184882322</v>
       </c>
       <c r="D17">
-        <v>0.09408484184267252</v>
+        <v>0.1136355020294673</v>
       </c>
       <c r="E17">
-        <v>0.06048765989165084</v>
+        <v>0.05668228472293713</v>
       </c>
       <c r="F17">
-        <v>0.5183810585351125</v>
+        <v>0.4122188557993098</v>
       </c>
       <c r="G17">
-        <v>0.3812682041504445</v>
+        <v>0.2756152923617918</v>
       </c>
       <c r="H17">
-        <v>0.1253355896432709</v>
+        <v>0.125068956169514</v>
       </c>
       <c r="I17">
-        <v>0.01847065315449825</v>
+        <v>0.01591502737218953</v>
       </c>
       <c r="J17">
-        <v>0.2902089394328584</v>
+        <v>0.2674585240832457</v>
       </c>
       <c r="K17">
-        <v>0.3912951456698437</v>
+        <v>0.2901442496422391</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1472571471386459</v>
       </c>
       <c r="M17">
-        <v>5.753676532006068</v>
+        <v>0.09178425905604826</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6971820810793332</v>
+        <v>5.734364794654027</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6958317212789993</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0761118035546815</v>
+        <v>0.0409132757886681</v>
       </c>
       <c r="D18">
-        <v>0.08077712147333926</v>
+        <v>0.09916126580282736</v>
       </c>
       <c r="E18">
-        <v>0.0421714386811135</v>
+        <v>0.03832151716955312</v>
       </c>
       <c r="F18">
-        <v>0.5999826175309622</v>
+        <v>0.4792330910888225</v>
       </c>
       <c r="G18">
-        <v>0.46638432351169</v>
+        <v>0.3366070188243526</v>
       </c>
       <c r="H18">
-        <v>0.07252950368164335</v>
+        <v>0.07226592885025696</v>
       </c>
       <c r="I18">
-        <v>0.01738923233525469</v>
+        <v>0.01498862103560494</v>
       </c>
       <c r="J18">
-        <v>0.3367837296762843</v>
+        <v>0.310120473530219</v>
       </c>
       <c r="K18">
-        <v>0.4547366388083276</v>
+        <v>0.3372414675789486</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1659676347021595</v>
       </c>
       <c r="M18">
-        <v>5.447854706541762</v>
+        <v>0.1078583162403355</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8339275900461018</v>
+        <v>5.42964057135481</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8323572628686406</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0651091515450517</v>
+        <v>0.03035215823762627</v>
       </c>
       <c r="D19">
-        <v>0.06757716711197759</v>
+        <v>0.08529513235286146</v>
       </c>
       <c r="E19">
-        <v>0.08087625821926991</v>
+        <v>0.07661126856076983</v>
       </c>
       <c r="F19">
-        <v>0.7175849844118858</v>
+        <v>0.5707981400356772</v>
       </c>
       <c r="G19">
-        <v>0.5897400133019772</v>
+        <v>0.4270588128475339</v>
       </c>
       <c r="H19">
-        <v>0.02788671373770768</v>
+        <v>0.02755704867232822</v>
       </c>
       <c r="I19">
-        <v>0.01759706003012962</v>
+        <v>0.01515733880790204</v>
       </c>
       <c r="J19">
-        <v>0.4013746078537679</v>
+        <v>0.3609547724781379</v>
       </c>
       <c r="K19">
-        <v>0.5443992392222086</v>
+        <v>0.3998780290354631</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1894547897825944</v>
       </c>
       <c r="M19">
-        <v>5.195202598716378</v>
+        <v>0.131317307197083</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.047865477576323</v>
+        <v>5.176736260138057</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.045822185818025</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05466879249082268</v>
+        <v>0.02051514177770386</v>
       </c>
       <c r="D20">
-        <v>0.05322273581983694</v>
+        <v>0.0711458650579857</v>
       </c>
       <c r="E20">
-        <v>0.2707104039992245</v>
+        <v>0.264821935345104</v>
       </c>
       <c r="F20">
-        <v>0.9423862497180835</v>
+        <v>0.7341747931439926</v>
       </c>
       <c r="G20">
-        <v>0.8260273195113825</v>
+        <v>0.6060344173721006</v>
       </c>
       <c r="H20">
-        <v>0.004387667872784107</v>
+        <v>0.003754657028161912</v>
       </c>
       <c r="I20">
-        <v>0.02076660189780277</v>
+        <v>0.01746992248537627</v>
       </c>
       <c r="J20">
-        <v>0.5192031525030671</v>
+        <v>0.4301473911092017</v>
       </c>
       <c r="K20">
-        <v>0.7148159675072137</v>
+        <v>0.509859731545653</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2262357610757562</v>
       </c>
       <c r="M20">
-        <v>5.095298865878192</v>
+        <v>0.178454539342809</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.472997805681345</v>
+        <v>5.072743707023449</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.46951184588049</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06221272379303144</v>
+        <v>0.02631283489532876</v>
       </c>
       <c r="D21">
-        <v>0.05578456644906282</v>
+        <v>0.08098632104216108</v>
       </c>
       <c r="E21">
-        <v>0.3253372335345119</v>
+        <v>0.3169600396660712</v>
       </c>
       <c r="F21">
-        <v>1.05064898268364</v>
+        <v>0.7629949087457533</v>
       </c>
       <c r="G21">
-        <v>0.9247927748746037</v>
+        <v>0.7298373860463414</v>
       </c>
       <c r="H21">
-        <v>0.007506857063763528</v>
+        <v>0.006367981705413084</v>
       </c>
       <c r="I21">
-        <v>0.02831859604441878</v>
+        <v>0.0228077116613763</v>
       </c>
       <c r="J21">
-        <v>0.5591607875184792</v>
+        <v>0.335643925538804</v>
       </c>
       <c r="K21">
-        <v>0.7913764768365823</v>
+        <v>0.52214128198721</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2192766939060746</v>
       </c>
       <c r="M21">
-        <v>5.711708631954878</v>
+        <v>0.1986050525684107</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.693874595741264</v>
+        <v>5.67862698927911</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.688418809438815</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06877295395690197</v>
+        <v>0.0315722989248215</v>
       </c>
       <c r="D22">
-        <v>0.05780114883057763</v>
+        <v>0.08829215708837523</v>
       </c>
       <c r="E22">
-        <v>0.3488879424453017</v>
+        <v>0.338866911030685</v>
       </c>
       <c r="F22">
-        <v>1.117487350821264</v>
+        <v>0.7759019603600734</v>
       </c>
       <c r="G22">
-        <v>0.9848585605272291</v>
+        <v>0.8148359939887797</v>
       </c>
       <c r="H22">
-        <v>0.00987797407343995</v>
+        <v>0.008352619815904239</v>
       </c>
       <c r="I22">
-        <v>0.03357180550694849</v>
+        <v>0.0263341631775047</v>
       </c>
       <c r="J22">
-        <v>0.5830095944738218</v>
+        <v>0.2766182582524266</v>
       </c>
       <c r="K22">
-        <v>0.8392665808999169</v>
+        <v>0.5268143900323068</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2136411096918209</v>
       </c>
       <c r="M22">
-        <v>6.129863468836277</v>
+        <v>0.21082940151787</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.819636597323324</v>
+        <v>6.089310939724612</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.812781347843568</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06620349775036516</v>
+        <v>0.02889262450561603</v>
       </c>
       <c r="D23">
-        <v>0.05643485694410089</v>
+        <v>0.08349328472270656</v>
       </c>
       <c r="E23">
-        <v>0.3363679066555463</v>
+        <v>0.3272679930146438</v>
       </c>
       <c r="F23">
-        <v>1.08625078086277</v>
+        <v>0.7773095261699439</v>
       </c>
       <c r="G23">
-        <v>0.9576766694308105</v>
+        <v>0.765937432389876</v>
       </c>
       <c r="H23">
-        <v>0.008585896230175583</v>
+        <v>0.007278447287404954</v>
       </c>
       <c r="I23">
-        <v>0.03052719593712361</v>
+        <v>0.02417952480395869</v>
       </c>
       <c r="J23">
-        <v>0.5727432149612781</v>
+        <v>0.319303316783504</v>
       </c>
       <c r="K23">
-        <v>0.8183422705634911</v>
+        <v>0.5310110902801028</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2189373118379336</v>
       </c>
       <c r="M23">
-        <v>5.90682909000202</v>
+        <v>0.2070296342903148</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.752498199074239</v>
+        <v>5.870478104540894</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.746434851709921</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0550917021869779</v>
+        <v>0.02043519516327663</v>
       </c>
       <c r="D24">
-        <v>0.05172884209476081</v>
+        <v>0.06934158171044658</v>
       </c>
       <c r="E24">
-        <v>0.2892892240731726</v>
+        <v>0.2833159011765716</v>
       </c>
       <c r="F24">
-        <v>0.9635791123457125</v>
+        <v>0.7510437815973745</v>
       </c>
       <c r="G24">
-        <v>0.8495146705092793</v>
+        <v>0.623419467004652</v>
       </c>
       <c r="H24">
-        <v>0.004445728394905424</v>
+        <v>0.003796221444260506</v>
       </c>
       <c r="I24">
-        <v>0.02043289896396061</v>
+        <v>0.01701167936698056</v>
       </c>
       <c r="J24">
-        <v>0.5313010571893528</v>
+        <v>0.440262571973193</v>
       </c>
       <c r="K24">
-        <v>0.7330404529312418</v>
+        <v>0.5231503550666545</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2312291035071325</v>
       </c>
       <c r="M24">
-        <v>5.064449184019452</v>
+        <v>0.1834484300406274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.499414993916574</v>
+        <v>5.041816998866807</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.495848173152368</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0433893665821472</v>
+        <v>0.01531456441095713</v>
       </c>
       <c r="D25">
-        <v>0.04662409005859303</v>
+        <v>0.0596039268537325</v>
       </c>
       <c r="E25">
-        <v>0.2392614676083511</v>
+        <v>0.2357586101272915</v>
       </c>
       <c r="F25">
-        <v>0.8370840662855699</v>
+        <v>0.6720931658593585</v>
       </c>
       <c r="G25">
-        <v>0.7384011847157268</v>
+        <v>0.5511419270392679</v>
       </c>
       <c r="H25">
-        <v>0.001420540696681627</v>
+        <v>0.001192609741737405</v>
       </c>
       <c r="I25">
-        <v>0.01170400104623859</v>
+        <v>0.01039604340370914</v>
       </c>
       <c r="J25">
-        <v>0.4896101428596467</v>
+        <v>0.4306814098943477</v>
       </c>
       <c r="K25">
-        <v>0.6441415926698753</v>
+        <v>0.4785824099327769</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2312740114536069</v>
       </c>
       <c r="M25">
-        <v>4.159985546259065</v>
+        <v>0.1460442842746232</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.228483515749573</v>
+        <v>4.14755759366011</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.226668575872509</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
